--- a/需求文档/逻辑需求.xlsx
+++ b/需求文档/逻辑需求.xlsx
@@ -31,7 +31,7 @@
     <author>User</author>
   </authors>
   <commentList>
-    <comment ref="J363" authorId="0" shapeId="0">
+    <comment ref="J414" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="683">
   <si>
     <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1744,10 +1744,6 @@
   </si>
   <si>
     <t>免广告后每日次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人账号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2420,6 +2416,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表头</t>
+  </si>
+  <si>
+    <t>需求描述</t>
+  </si>
+  <si>
+    <t>范例</t>
+  </si>
+  <si>
+    <t>参数备注</t>
+  </si>
+  <si>
+    <t>奖励内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线时间超过3分钟离线奖励才会生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限购次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.货币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.消耗品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效矿产组（-1为全部，0为无）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：经理表和项目表调用的效果是要在表中标明对象的，其它表（广告、道具表）调用效果、默认是对所有矿产生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>11.矿产效果翻倍（参加：倍数/1000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2464,6 +2536,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>42.小猪矿机永久（参数：数量/1000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.永久矿机（参数：数量/1000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>51.销售游戏资产不重置矿产（参数：无）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2476,75 +2556,207 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表头</t>
-  </si>
-  <si>
-    <t>需求描述</t>
-  </si>
-  <si>
-    <t>范例</t>
-  </si>
-  <si>
-    <t>参数备注</t>
-  </si>
-  <si>
-    <t>奖励内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广告</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42.小猪矿机永久（参数：数量/1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.永久矿机（参数：数量/1000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>54.金矿包（参数：金矿数量）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>离线时间超过3分钟离线奖励才会生效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>限购次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.货币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.消耗品</t>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌登录、苹果登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启动页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载loading动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地配置用户协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家不同意用户协议无法进入下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户协议同意后，不再主动弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认手机语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以使用游客登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录玩家可以正常看广告，但无法充值和提现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击充值或提现按钮，系统提示无法进行，提示登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该功能只用于测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统框输入账号，点击确定按钮即可登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌登录，苹果登录后，该界面不需要再次登录，而是直接进入游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客登录，每次停留在登录界面，需要点击游客登录按钮登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换多语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以查单隐私协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个玩家生成一个字符串id（方便玩家操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家可以切换登录方式（谷歌账号和苹果账号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用游客登录的玩家，再登录其它账号（谷歌或苹果），则新登录的账号继承游戏账号的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果使用账号登录，则不继承游客账号数据，并将账号登录视为默认登录方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用账号登录，则默认最后一次的登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果进行账号登录，则游客账号只能通过账号登录找回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出账号/删除账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出删除账号则返回登录界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击分享按钮，则复制一份分享文案，同时打开手机系统自带的分享功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击支持按钮，则跳转到商店评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击联系按钮，自动打开系统邮箱，自动填写指定客服邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二次确认弹窗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3265,10 +3477,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC460"/>
+  <dimension ref="A1:AC511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="K265" sqref="K265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4052,7 +4264,7 @@
         <v>4.13</v>
       </c>
       <c r="E88" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -4351,7 +4563,7 @@
       <c r="A122" s="3"/>
       <c r="C122" s="34"/>
       <c r="D122" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E122" s="34"/>
     </row>
@@ -4419,7 +4631,7 @@
         <v>60</v>
       </c>
       <c r="G129" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4438,7 +4650,7 @@
         <v>115</v>
       </c>
       <c r="G131" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4468,7 +4680,7 @@
         <v>115</v>
       </c>
       <c r="G134" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4564,7 +4776,7 @@
         <v>6.23</v>
       </c>
       <c r="E144" s="46" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F144" s="47"/>
       <c r="G144" s="46"/>
@@ -4575,7 +4787,7 @@
         <v>68</v>
       </c>
       <c r="F145" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G145" s="46"/>
     </row>
@@ -4584,7 +4796,7 @@
       <c r="E146" s="46"/>
       <c r="F146" s="47"/>
       <c r="G146" s="46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4593,7 +4805,7 @@
       <c r="F147" s="47"/>
       <c r="G147" s="46"/>
       <c r="H147" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4602,7 +4814,7 @@
         <v>71</v>
       </c>
       <c r="F148" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G148" s="46"/>
     </row>
@@ -4611,7 +4823,7 @@
       <c r="E149" s="5"/>
       <c r="F149" s="48"/>
       <c r="G149" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4620,7 +4832,7 @@
       <c r="F150" s="48"/>
       <c r="G150" s="46"/>
       <c r="H150" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4651,7 +4863,7 @@
       <c r="A154" s="3"/>
       <c r="E154" s="23"/>
       <c r="F154" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G154">
         <v>40</v>
@@ -4661,7 +4873,7 @@
       <c r="A155" s="3"/>
       <c r="E155" s="23"/>
       <c r="F155" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G155">
         <v>60</v>
@@ -4718,7 +4930,7 @@
         <v>2</v>
       </c>
       <c r="E161" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4772,7 +4984,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="26"/>
       <c r="E168" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4802,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="D172" s="26" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4829,10 +5041,10 @@
       <c r="C175" s="5"/>
       <c r="D175" s="26"/>
       <c r="E175" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F175" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4840,10 +5052,10 @@
       <c r="C176" s="5"/>
       <c r="D176" s="26"/>
       <c r="E176" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F176" t="s">
         <v>510</v>
-      </c>
-      <c r="F176" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4861,10 +5073,10 @@
       <c r="C178" s="5"/>
       <c r="D178" s="26"/>
       <c r="E178" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F178" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4872,10 +5084,10 @@
       <c r="C179" s="5"/>
       <c r="D179" s="26"/>
       <c r="E179" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F179" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4899,17 +5111,17 @@
         <v>9.2100000000000009</v>
       </c>
       <c r="E182" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183" s="3"/>
       <c r="C183" s="5"/>
       <c r="E183" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F183" s="34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4917,10 +5129,10 @@
       <c r="C184" s="5"/>
       <c r="D184" s="26"/>
       <c r="E184" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F184" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4931,7 +5143,7 @@
         <v>68</v>
       </c>
       <c r="F185" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4942,7 +5154,7 @@
         <v>71</v>
       </c>
       <c r="F186" s="45" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4950,10 +5162,10 @@
       <c r="C187" s="5"/>
       <c r="D187" s="26"/>
       <c r="E187" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F187" s="45" t="s">
         <v>514</v>
-      </c>
-      <c r="F187" s="45" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4963,7 +5175,7 @@
         <v>9.2200000000000006</v>
       </c>
       <c r="E188" s="30" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F188" s="45"/>
     </row>
@@ -4971,27 +5183,27 @@
       <c r="A189" s="3"/>
       <c r="C189" s="5"/>
       <c r="E189" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F189" s="45" t="s">
         <v>518</v>
-      </c>
-      <c r="F189" s="45" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190" s="3"/>
       <c r="C190" s="5"/>
       <c r="E190" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F190" s="45" t="s">
         <v>520</v>
-      </c>
-      <c r="F190" s="45" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191" s="3"/>
       <c r="C191" s="5"/>
       <c r="E191" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F191" t="s">
         <v>419</v>
@@ -5002,10 +5214,10 @@
       <c r="C192" s="5"/>
       <c r="D192" s="26"/>
       <c r="E192" s="5" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F192" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5014,7 +5226,7 @@
       <c r="D193" s="26"/>
       <c r="E193" s="5"/>
       <c r="G193" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5024,7 +5236,7 @@
         <v>9.23</v>
       </c>
       <c r="E194" s="34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
@@ -5034,10 +5246,10 @@
       <c r="C195" s="5"/>
       <c r="D195" s="51"/>
       <c r="E195" s="36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F195" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G195" s="34"/>
     </row>
@@ -5046,10 +5258,10 @@
       <c r="C196" s="5"/>
       <c r="D196" s="51"/>
       <c r="E196" s="36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F196" s="34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G196" s="34"/>
     </row>
@@ -5058,10 +5270,10 @@
       <c r="C197" s="5"/>
       <c r="D197" s="35"/>
       <c r="E197" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F197" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G197" s="34"/>
     </row>
@@ -5111,17 +5323,17 @@
         <v>9.31</v>
       </c>
       <c r="E203" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="204" spans="1:7">
       <c r="A204" s="3"/>
       <c r="C204" s="5"/>
       <c r="E204" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F204" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5132,7 +5344,7 @@
         <v>71</v>
       </c>
       <c r="F205" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5161,7 +5373,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="26"/>
       <c r="E208" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F208" t="s">
         <v>423</v>
@@ -5172,7 +5384,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="26"/>
       <c r="E209" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F209" t="s">
         <v>424</v>
@@ -5184,7 +5396,7 @@
       <c r="D210" s="26"/>
       <c r="E210" s="5"/>
       <c r="G210" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5194,7 +5406,7 @@
         <v>9.33</v>
       </c>
       <c r="E211" s="30" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5205,7 +5417,7 @@
         <v>68</v>
       </c>
       <c r="F212" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5214,7 +5426,7 @@
       <c r="D213" s="26"/>
       <c r="E213" s="5"/>
       <c r="G213" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5223,7 +5435,7 @@
       <c r="D214" s="26"/>
       <c r="E214" s="5"/>
       <c r="G214" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5232,7 +5444,7 @@
       <c r="D215" s="26"/>
       <c r="E215" s="5"/>
       <c r="H215" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -5291,7 +5503,7 @@
       <c r="A223" s="3"/>
       <c r="C223" s="5"/>
       <c r="F223" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G223">
         <v>10</v>
@@ -5301,20 +5513,20 @@
       <c r="A224" s="3"/>
       <c r="C224" s="5"/>
       <c r="F224" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="G224" s="52" t="s">
         <v>532</v>
-      </c>
-      <c r="G224" s="52" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="3"/>
       <c r="C225" s="5"/>
       <c r="F225" s="21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G225" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="J225" s="23"/>
     </row>
@@ -5323,10 +5535,10 @@
       <c r="C226" s="5"/>
       <c r="D226" s="26"/>
       <c r="F226" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="G226" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="G226" s="7" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -5345,3713 +5557,4200 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="3"/>
-      <c r="B229">
-        <v>10</v>
-      </c>
-      <c r="C229" t="s">
-        <v>194</v>
-      </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="3"/>
-      <c r="C230" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D230" s="6" t="s">
-        <v>387</v>
-      </c>
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="3"/>
-      <c r="D231" s="23"/>
-      <c r="E231" t="s">
-        <v>388</v>
-      </c>
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="3"/>
-      <c r="D232" s="23"/>
-      <c r="E232" t="s">
-        <v>390</v>
-      </c>
-      <c r="F232" t="s">
-        <v>539</v>
-      </c>
-      <c r="H232" t="s">
-        <v>540</v>
-      </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="3"/>
-      <c r="D233" s="23"/>
-      <c r="E233" t="s">
-        <v>537</v>
-      </c>
-      <c r="H233" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="3"/>
-      <c r="D234" s="23"/>
-      <c r="F234" t="s">
-        <v>538</v>
-      </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="3"/>
       <c r="B235">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>432</v>
+        <v>646</v>
       </c>
       <c r="D235" s="23"/>
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="3"/>
-      <c r="D236" s="23"/>
+      <c r="C236">
+        <v>10.1</v>
+      </c>
+      <c r="D236" s="23" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="3"/>
-      <c r="D237" s="23"/>
+      <c r="D237" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E237" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="3"/>
-      <c r="D238" s="23"/>
+      <c r="D238" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E238" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="3"/>
-      <c r="D239" s="23"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F239" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="3"/>
-      <c r="D240" s="23"/>
-    </row>
-    <row r="241" spans="1:16">
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="G240" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="3"/>
-      <c r="D241" s="23"/>
-    </row>
-    <row r="242" spans="1:16">
+      <c r="D241" s="5"/>
+      <c r="E241" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F241" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="3"/>
-      <c r="B242">
+      <c r="D242" s="5"/>
+      <c r="E242" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F242" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" s="3"/>
+      <c r="D243" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E243" s="30" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
+      <c r="A244" s="3"/>
+      <c r="D244" s="23"/>
+      <c r="E244" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F244" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
+      <c r="A245" s="3"/>
+      <c r="D245" s="23"/>
+    </row>
+    <row r="246" spans="1:7">
+      <c r="A246" s="3"/>
+      <c r="C246">
+        <v>10.1</v>
+      </c>
+      <c r="D246" s="23" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
+      <c r="A247" s="3"/>
+      <c r="D247" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E247" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
+      <c r="A248" s="3"/>
+      <c r="D248" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E248" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
+      <c r="A249" s="3"/>
+      <c r="D249" s="5"/>
+      <c r="E249" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F249" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
+      <c r="A250" s="3"/>
+      <c r="D250" s="23"/>
+      <c r="E250" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F250" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
+      <c r="A251" s="3"/>
+      <c r="D251" s="23"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="G251" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="3"/>
+      <c r="D252" s="23"/>
+      <c r="E252" s="5"/>
+      <c r="G252" s="13" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="3"/>
+      <c r="D253" s="23"/>
+      <c r="E253" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F253" t="s">
+        <v>671</v>
+      </c>
+      <c r="G253" s="13"/>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="3"/>
+      <c r="D254" s="23"/>
+      <c r="E254" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F254" t="s">
+        <v>672</v>
+      </c>
+      <c r="G254" s="13"/>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="3"/>
+      <c r="D255" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E255" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="3"/>
+      <c r="D256" s="23"/>
+      <c r="E256" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F256" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" s="3"/>
+      <c r="D257" s="23"/>
+      <c r="E257" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F257" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" s="3"/>
+      <c r="D258" s="23"/>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" s="3"/>
+      <c r="D259" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E259" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" s="3"/>
+      <c r="D260" s="23"/>
+      <c r="E260" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F260" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" s="3"/>
+      <c r="D261" s="23"/>
+      <c r="E261" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F261" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" s="3"/>
+      <c r="D262" s="23"/>
+      <c r="E262" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F262" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" s="3"/>
+      <c r="D263" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E263" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" s="3"/>
+      <c r="D264" s="23"/>
+      <c r="E264" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F264" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" s="3"/>
+      <c r="D265" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E265" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" s="3"/>
+      <c r="D266" s="23"/>
+      <c r="E266" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F266" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" s="3"/>
+      <c r="D267" s="23"/>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" s="3"/>
+      <c r="C268">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D268" s="23" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" s="3"/>
+      <c r="D269" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E269" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" s="3"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F270" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" s="3"/>
+      <c r="D271" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="E271" s="65" t="s">
+        <v>638</v>
+      </c>
+      <c r="F271" s="23"/>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" s="3"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F272" s="65" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
+      <c r="A273" s="3"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F273" s="65" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" s="3"/>
+      <c r="D274" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E274" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="A275" s="3"/>
+      <c r="D275" s="23"/>
+      <c r="E275" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F275" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
+      <c r="A276" s="3"/>
+      <c r="D276" s="23"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G276" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" s="3"/>
+      <c r="D277" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="E277" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="A278" s="3"/>
+      <c r="D278" s="23"/>
+      <c r="E278" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F278" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
+      <c r="A279" s="3"/>
+      <c r="D279" s="23"/>
+      <c r="G279" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="3"/>
+      <c r="D280" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E280" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="A281" s="3"/>
+      <c r="D281" s="5"/>
+      <c r="E281" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F281" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="3"/>
+      <c r="D282" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E282" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="3"/>
+      <c r="D283" s="23"/>
+      <c r="E283" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F283" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="A284" s="3"/>
+      <c r="D284" s="23"/>
+    </row>
+    <row r="285" spans="1:8">
+      <c r="A285" s="3"/>
+      <c r="B285">
+        <v>10</v>
+      </c>
+      <c r="C285" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" s="3"/>
+      <c r="C286" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="A287" s="3"/>
+      <c r="D287" s="23"/>
+      <c r="E287" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
+      <c r="A288" s="3"/>
+      <c r="D288" s="23"/>
+      <c r="E288" t="s">
+        <v>390</v>
+      </c>
+      <c r="F288" t="s">
+        <v>538</v>
+      </c>
+      <c r="H288" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" s="3"/>
+      <c r="D289" s="23"/>
+      <c r="E289" t="s">
+        <v>536</v>
+      </c>
+      <c r="H289" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="A290" s="3"/>
+      <c r="D290" s="23"/>
+      <c r="F290" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
+      <c r="A291" s="3"/>
+      <c r="D291" s="23"/>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" s="3"/>
+      <c r="D292" s="23"/>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="A293" s="3"/>
+      <c r="B293">
         <v>13</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C293" t="s">
+        <v>457</v>
+      </c>
+      <c r="D293" s="23"/>
+    </row>
+    <row r="294" spans="1:8">
+      <c r="A294" s="3"/>
+      <c r="D294" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D242" s="23"/>
-    </row>
-    <row r="243" spans="1:16">
-      <c r="A243" s="3"/>
-      <c r="D243" s="6" t="s">
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" s="3"/>
+      <c r="D295" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="244" spans="1:16">
-      <c r="A244" s="3"/>
-      <c r="D244" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="245" spans="1:16">
-      <c r="A245" s="3"/>
-      <c r="D245" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="246" spans="1:16">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:16">
-      <c r="A247" s="3"/>
-      <c r="D247" s="23"/>
-    </row>
-    <row r="248" spans="1:16">
-      <c r="A248" s="3"/>
-      <c r="B248">
+    <row r="296" spans="1:8">
+      <c r="A296" s="3"/>
+      <c r="D296" s="6" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
+      <c r="A297" s="3"/>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="3"/>
+      <c r="D298" s="23"/>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="A299" s="3"/>
+      <c r="B299">
         <v>14</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C299" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="249" spans="1:16">
-      <c r="A249" s="3"/>
-      <c r="D249" s="6" t="s">
+    <row r="300" spans="1:8">
+      <c r="A300" s="3"/>
+      <c r="D300" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F249" t="s">
+      <c r="F300" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="250" spans="1:16">
-      <c r="A250" s="3"/>
-      <c r="F250" t="s">
+    <row r="301" spans="1:8">
+      <c r="A301" s="3"/>
+      <c r="F301" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="251" spans="1:16">
-      <c r="A251" s="3"/>
-    </row>
-    <row r="252" spans="1:16">
-      <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:16">
-      <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:16">
-      <c r="A254" s="3" t="s">
+    <row r="302" spans="1:8">
+      <c r="A302" s="3"/>
+    </row>
+    <row r="303" spans="1:8">
+      <c r="A303" s="3"/>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" s="3"/>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B305" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="P254" s="18"/>
-    </row>
-    <row r="255" spans="1:16">
-      <c r="B255">
+      <c r="P305" s="18"/>
+    </row>
+    <row r="306" spans="1:18">
+      <c r="B306">
         <v>1</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C306" t="s">
         <v>200</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D306" t="s">
         <v>201</v>
       </c>
-      <c r="E255" s="10" t="s">
+      <c r="E306" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="F255" s="10" t="s">
+      <c r="F306" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="G255" s="10" t="s">
+      <c r="G306" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H255" s="10" t="s">
+      <c r="H306" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I255" s="10" t="s">
+      <c r="I306" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J255" s="10" t="s">
+      <c r="J306" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="K255" s="10" t="s">
+      <c r="K306" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="L255" s="10" t="s">
+      <c r="L306" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="M255" s="10" t="s">
+      <c r="M306" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="N306" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="O306" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="P306" s="18"/>
+    </row>
+    <row r="307" spans="1:18">
+      <c r="C307" t="s">
+        <v>206</v>
+      </c>
+      <c r="E307" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F307" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G307" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H307" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I307" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J307" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K307" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L307" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M307" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="N307" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="O307" s="10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18">
+      <c r="E308" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F308" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G308" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H308" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I308" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J308" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="K308" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="L308" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M308" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="N255" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="O255" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="P255" s="18"/>
-    </row>
-    <row r="256" spans="1:16">
-      <c r="C256" t="s">
+      <c r="N308" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="O308" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P308" s="18"/>
+    </row>
+    <row r="309" spans="1:18">
+      <c r="D309" t="s">
+        <v>217</v>
+      </c>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H309" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K309" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="L309" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M309" s="59"/>
+      <c r="N309" s="11"/>
+      <c r="O309" s="11"/>
+      <c r="P309" s="18"/>
+    </row>
+    <row r="310" spans="1:18">
+      <c r="D310" t="s">
+        <v>222</v>
+      </c>
+      <c r="E310" s="2">
+        <v>101</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G310" s="2">
+        <v>10101</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I310" s="2">
+        <v>0</v>
+      </c>
+      <c r="J310" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="K310" s="32" t="s">
+        <v>442</v>
+      </c>
+      <c r="L310" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M310" s="58">
+        <v>5</v>
+      </c>
+      <c r="N310" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="O310" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="P310" s="18"/>
+    </row>
+    <row r="311" spans="1:18">
+      <c r="E311" s="2">
+        <v>102</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G311" s="2">
+        <v>10102</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I311" s="2">
+        <v>60</v>
+      </c>
+      <c r="J311" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K311" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="L311" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M311" s="58"/>
+      <c r="N311" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="O311" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="P311" s="18"/>
+    </row>
+    <row r="312" spans="1:18">
+      <c r="E312" s="2">
+        <v>103</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G312" s="2">
+        <v>10103</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I312" s="2">
+        <v>720</v>
+      </c>
+      <c r="J312" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K312" s="32" t="s">
+        <v>444</v>
+      </c>
+      <c r="L312" s="2">
+        <v>6000</v>
+      </c>
+      <c r="M312" s="58"/>
+      <c r="N312" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="O312" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="P312" s="18"/>
+    </row>
+    <row r="313" spans="1:18">
+      <c r="D313" t="s">
+        <v>229</v>
+      </c>
+      <c r="H313" s="1"/>
+      <c r="J313" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K313" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="M313" s="24"/>
+    </row>
+    <row r="314" spans="1:18">
+      <c r="H314" s="1"/>
+      <c r="J314" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K314" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="R314" s="23"/>
+    </row>
+    <row r="315" spans="1:18">
+      <c r="H315" s="1"/>
+      <c r="J315" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K315" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="316" spans="1:18">
+      <c r="A316" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18">
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" t="s">
+        <v>355</v>
+      </c>
+      <c r="D317" t="s">
+        <v>235</v>
+      </c>
+      <c r="E317" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G317" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H317" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I317" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J317" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K317" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L317" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="M317" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="N317" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="O317" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18">
+      <c r="C318" t="s">
+        <v>124</v>
+      </c>
+      <c r="E318" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F318" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G318" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="H318" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I318" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J318" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K318" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="L318" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="M318" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N318" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O318" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18">
+      <c r="E319" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F319" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G319" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H319" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="I319" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J319" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K319" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="L319" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M319" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N319" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O319" s="10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18">
+      <c r="D320" t="s">
+        <v>217</v>
+      </c>
+      <c r="E320" s="11"/>
+      <c r="F320" s="11"/>
+      <c r="G320" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H320" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I320" s="11"/>
+      <c r="J320" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K320" s="11"/>
+      <c r="L320" s="21"/>
+      <c r="M320" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="N320" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="O320" s="11"/>
+    </row>
+    <row r="321" spans="2:18">
+      <c r="D321" t="s">
+        <v>222</v>
+      </c>
+      <c r="E321" s="2">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2">
+        <v>20101</v>
+      </c>
+      <c r="H321" s="2">
+        <v>20201</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="J321" s="14">
+        <v>1</v>
+      </c>
+      <c r="K321" s="2">
+        <v>10101</v>
+      </c>
+      <c r="L321" s="62">
+        <v>-1</v>
+      </c>
+      <c r="M321" s="2">
+        <v>1</v>
+      </c>
+      <c r="N321" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O321" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="322" spans="2:18">
+      <c r="E322" s="2">
+        <v>2</v>
+      </c>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2">
+        <v>20102</v>
+      </c>
+      <c r="H322" s="2">
+        <v>20201</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J322" s="14">
+        <v>2</v>
+      </c>
+      <c r="K322" s="2">
+        <v>10102</v>
+      </c>
+      <c r="L322" s="62"/>
+      <c r="M322" s="2">
+        <v>2</v>
+      </c>
+      <c r="N322" s="2">
+        <v>1000</v>
+      </c>
+      <c r="O322" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="323" spans="2:18">
+      <c r="E323" s="2">
+        <v>3</v>
+      </c>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2">
+        <v>20103</v>
+      </c>
+      <c r="H323" s="2">
+        <v>20201</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J323" s="14">
+        <v>3</v>
+      </c>
+      <c r="K323" s="2">
+        <v>10103</v>
+      </c>
+      <c r="L323" s="62">
+        <v>-1</v>
+      </c>
+      <c r="M323" s="2">
+        <v>3</v>
+      </c>
+      <c r="N323" s="2">
+        <v>1</v>
+      </c>
+      <c r="O323" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="324" spans="2:18">
+      <c r="H324" s="1"/>
+      <c r="I324" s="7"/>
+      <c r="K324" s="34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="325" spans="2:18">
+      <c r="H325" s="1"/>
+      <c r="I325" s="7"/>
+      <c r="K325" s="34" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="326" spans="2:18">
+      <c r="H326" s="1"/>
+      <c r="I326" s="7"/>
+      <c r="K326" s="34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="327" spans="2:18">
+      <c r="H327" s="1"/>
+      <c r="I327" s="7"/>
+      <c r="K327" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="R327" s="7"/>
+    </row>
+    <row r="329" spans="2:18">
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329" t="s">
+        <v>356</v>
+      </c>
+      <c r="D329" t="s">
+        <v>235</v>
+      </c>
+      <c r="E329" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F329" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G329" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H329" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I329" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="J329" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K329" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L329" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="M329" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="N329" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="O329" s="10" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="330" spans="2:18">
+      <c r="C330" t="s">
+        <v>258</v>
+      </c>
+      <c r="E330" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F330" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G330" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H330" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I330" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J330" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="K330" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="L330" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="M330" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N330" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="O330" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="331" spans="2:18">
+      <c r="E331" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F331" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G331" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H331" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I331" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J331" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="K331" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="L331" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="M331" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N331" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="O331" s="10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="332" spans="2:18">
+      <c r="D332" t="s">
+        <v>217</v>
+      </c>
+      <c r="E332" s="11"/>
+      <c r="F332" s="11"/>
+      <c r="G332" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H332" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I332" s="11"/>
+      <c r="J332" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="K332" s="11"/>
+      <c r="L332" s="21"/>
+      <c r="M332" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N332" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O332" s="11"/>
+    </row>
+    <row r="333" spans="2:18">
+      <c r="D333" t="s">
+        <v>222</v>
+      </c>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2">
+        <v>30101</v>
+      </c>
+      <c r="H333" s="2">
+        <v>30201</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J333" s="14">
+        <v>1</v>
+      </c>
+      <c r="K333" s="2">
+        <v>10101</v>
+      </c>
+      <c r="L333" s="62">
+        <v>-1</v>
+      </c>
+      <c r="M333" s="2">
+        <v>1</v>
+      </c>
+      <c r="N333" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O333" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="334" spans="2:18">
+      <c r="E334" s="2">
+        <v>2</v>
+      </c>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2">
+        <v>30101</v>
+      </c>
+      <c r="H334" s="2">
+        <v>30201</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J334" s="14">
+        <v>2</v>
+      </c>
+      <c r="K334" s="2">
+        <v>10102</v>
+      </c>
+      <c r="L334" s="62">
+        <v>-1</v>
+      </c>
+      <c r="M334" s="2">
+        <v>2</v>
+      </c>
+      <c r="N334" s="2">
+        <v>1000</v>
+      </c>
+      <c r="O334" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="335" spans="2:18">
+      <c r="D335" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="O335" s="2"/>
+    </row>
+    <row r="336" spans="2:18">
+      <c r="K336" s="34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="338" spans="2:13">
+      <c r="B338">
+        <v>4</v>
+      </c>
+      <c r="C338" t="s">
+        <v>357</v>
+      </c>
+      <c r="D338" t="s">
+        <v>235</v>
+      </c>
+      <c r="E338" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F338" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G338" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="339" spans="2:13">
+      <c r="C339" t="s">
+        <v>265</v>
+      </c>
+      <c r="E339" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F339" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G339" s="10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="340" spans="2:13">
+      <c r="E340" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F340" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G340" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="341" spans="2:13">
+      <c r="D341" t="s">
+        <v>267</v>
+      </c>
+      <c r="E341" s="11"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
+    </row>
+    <row r="342" spans="2:13">
+      <c r="D342" t="s">
+        <v>222</v>
+      </c>
+      <c r="E342" s="2">
+        <v>1</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G342" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="2:13">
+      <c r="E343" s="2">
+        <v>2</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G343" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="344" spans="2:13">
+      <c r="E344" s="2">
+        <v>3</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G344" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="345" spans="2:13">
+      <c r="E345" s="18">
+        <v>4</v>
+      </c>
+      <c r="F345" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="G345" s="19" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="346" spans="2:13">
+      <c r="D346" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="349" spans="2:13">
+      <c r="B349">
+        <v>6</v>
+      </c>
+      <c r="C349" t="s">
+        <v>272</v>
+      </c>
+      <c r="D349" t="s">
+        <v>235</v>
+      </c>
+      <c r="E349" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F349" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G349" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H349" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="I349" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="J349" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="K349" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="L349" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="M349" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="350" spans="2:13">
+      <c r="C350" t="s">
+        <v>275</v>
+      </c>
+      <c r="E350" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F350" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G350" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H350" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I350" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J350" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K350" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L350" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M350" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="351" spans="2:13">
+      <c r="E351" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F351" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G351" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H351" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="I351" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J351" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K351" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="L351" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M351" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="352" spans="2:13">
+      <c r="D352" t="s">
+        <v>217</v>
+      </c>
+      <c r="E352" s="11"/>
+      <c r="F352" s="11"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="11"/>
+      <c r="I352" s="11"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="11"/>
+      <c r="L352" s="11"/>
+      <c r="M352" s="11"/>
+    </row>
+    <row r="353" spans="2:13">
+      <c r="D353" t="s">
+        <v>221</v>
+      </c>
+      <c r="E353" s="2">
+        <v>10101</v>
+      </c>
+      <c r="F353" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E256" s="10" t="s">
+      <c r="G353" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I353" s="2"/>
+      <c r="J353" s="2"/>
+      <c r="K353" s="2"/>
+      <c r="L353" s="2"/>
+      <c r="M353" s="2"/>
+    </row>
+    <row r="354" spans="2:13">
+      <c r="E354" s="2">
+        <v>10102</v>
+      </c>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I354" s="2"/>
+      <c r="J354" s="2"/>
+      <c r="K354" s="2"/>
+      <c r="L354" s="2"/>
+      <c r="M354" s="2"/>
+    </row>
+    <row r="355" spans="2:13">
+      <c r="E355" s="2">
+        <v>10103</v>
+      </c>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I355" s="2"/>
+      <c r="J355" s="2"/>
+      <c r="K355" s="2"/>
+      <c r="L355" s="2"/>
+      <c r="M355" s="2"/>
+    </row>
+    <row r="356" spans="2:13">
+      <c r="D356" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="357" spans="2:13">
+      <c r="E357" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="358" spans="2:13">
+      <c r="E358" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="359" spans="2:13">
+      <c r="E359" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="361" spans="2:13">
+      <c r="B361">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>358</v>
+      </c>
+      <c r="D361" t="s">
+        <v>235</v>
+      </c>
+      <c r="E361" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F256" s="10" t="s">
+      <c r="F361" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G361" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H361" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="I361" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J361" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="K361" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="362" spans="2:13">
+      <c r="C362" t="s">
+        <v>288</v>
+      </c>
+      <c r="E362" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F362" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="G256" s="10" t="s">
+      <c r="G362" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H256" s="10" t="s">
+      <c r="H362" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="I362" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="J362" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I256" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="J256" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K256" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L256" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="M256" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="N256" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="O256" s="10" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="257" spans="1:18">
-      <c r="E257" s="10" t="s">
+      <c r="K362" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="363" spans="2:13">
+      <c r="E363" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F363" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G363" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="F257" s="10" t="s">
+      <c r="H363" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="I363" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G257" s="10" t="s">
+      <c r="J363" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K363" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H257" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I257" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="J257" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="K257" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="L257" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="M257" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="N257" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="O257" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="P257" s="18"/>
-    </row>
-    <row r="258" spans="1:18">
-      <c r="D258" t="s">
+    </row>
+    <row r="364" spans="2:13">
+      <c r="D364" t="s">
         <v>217</v>
       </c>
-      <c r="E258" s="11"/>
-      <c r="F258" s="11"/>
-      <c r="G258" s="11" t="s">
+      <c r="E364" s="11"/>
+      <c r="F364" s="11"/>
+      <c r="G364" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H364" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H258" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="K258" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="L258" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M258" s="59"/>
-      <c r="N258" s="11"/>
-      <c r="O258" s="11"/>
-      <c r="P258" s="18"/>
-    </row>
-    <row r="259" spans="1:18">
-      <c r="D259" t="s">
+      <c r="I364" s="11"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="11"/>
+    </row>
+    <row r="365" spans="2:13">
+      <c r="D365" t="s">
         <v>222</v>
       </c>
-      <c r="E259" s="2">
-        <v>101</v>
-      </c>
-      <c r="F259" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G259" s="2">
-        <v>10101</v>
-      </c>
-      <c r="H259" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="I259" s="2">
-        <v>0</v>
-      </c>
-      <c r="J259" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K259" s="32" t="s">
-        <v>443</v>
-      </c>
-      <c r="L259" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M259" s="58">
-        <v>5</v>
-      </c>
-      <c r="N259" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="O259" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="P259" s="18"/>
-    </row>
-    <row r="260" spans="1:18">
-      <c r="E260" s="2">
-        <v>102</v>
-      </c>
-      <c r="F260" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G260" s="2">
-        <v>10102</v>
-      </c>
-      <c r="H260" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I260" s="2">
-        <v>60</v>
-      </c>
-      <c r="J260" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K260" s="32" t="s">
-        <v>444</v>
-      </c>
-      <c r="L260" s="2">
-        <v>2000</v>
-      </c>
-      <c r="M260" s="58"/>
-      <c r="N260" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="O260" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="P260" s="18"/>
-    </row>
-    <row r="261" spans="1:18">
-      <c r="E261" s="2">
-        <v>103</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G261" s="2">
-        <v>10103</v>
-      </c>
-      <c r="H261" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I261" s="2">
-        <v>720</v>
-      </c>
-      <c r="J261" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="K261" s="32" t="s">
-        <v>445</v>
-      </c>
-      <c r="L261" s="2">
-        <v>6000</v>
-      </c>
-      <c r="M261" s="58"/>
-      <c r="N261" s="27" t="s">
-        <v>375</v>
-      </c>
-      <c r="O261" s="27" t="s">
-        <v>398</v>
-      </c>
-      <c r="P261" s="18"/>
-    </row>
-    <row r="262" spans="1:18">
-      <c r="D262" t="s">
-        <v>229</v>
-      </c>
-      <c r="H262" s="1"/>
-      <c r="J262" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K262" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="M262" s="24"/>
-    </row>
-    <row r="263" spans="1:18">
-      <c r="H263" s="1"/>
-      <c r="J263" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K263" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="R263" s="23"/>
-    </row>
-    <row r="264" spans="1:18">
-      <c r="H264" s="1"/>
-      <c r="J264" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K264" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18">
-      <c r="A265" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18">
-      <c r="B266">
+      <c r="E365" s="2">
+        <v>1</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G365" s="2">
+        <v>40101</v>
+      </c>
+      <c r="H365" s="2">
+        <v>41101</v>
+      </c>
+      <c r="I365" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="J365" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="K365" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="2:13">
+      <c r="E366" s="2">
         <v>2</v>
       </c>
-      <c r="C266" t="s">
-        <v>355</v>
-      </c>
-      <c r="D266" t="s">
-        <v>235</v>
-      </c>
-      <c r="E266" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F266" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G266" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H266" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I266" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J266" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="K266" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L266" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="M266" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N266" s="10" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18">
-      <c r="C267" t="s">
-        <v>124</v>
-      </c>
-      <c r="E267" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F267" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G267" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H267" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I267" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J267" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K267" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="L267" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="M267" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N267" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18">
-      <c r="E268" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F268" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G268" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H268" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="I268" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J268" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="K268" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="L268" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="M268" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N268" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18">
-      <c r="D269" t="s">
-        <v>217</v>
-      </c>
-      <c r="E269" s="11"/>
-      <c r="F269" s="11"/>
-      <c r="G269" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H269" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I269" s="11"/>
-      <c r="J269" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K269" s="11"/>
-      <c r="L269" s="21"/>
-      <c r="M269" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="N269" s="11" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18">
-      <c r="D270" t="s">
-        <v>222</v>
-      </c>
-      <c r="E270" s="2">
+      <c r="F366" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G366" s="2">
+        <v>40102</v>
+      </c>
+      <c r="H366" s="2">
+        <v>41102</v>
+      </c>
+      <c r="I366" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J366" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K366" s="2">
         <v>1</v>
       </c>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2">
-        <v>20101</v>
-      </c>
-      <c r="H270" s="2">
-        <v>20201</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="J270" s="14">
-        <v>1</v>
-      </c>
-      <c r="K270" s="2">
-        <v>10101</v>
-      </c>
-      <c r="L270" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M270" s="2">
-        <v>1</v>
-      </c>
-      <c r="N270" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:18">
-      <c r="E271" s="2">
-        <v>2</v>
-      </c>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2">
-        <v>20102</v>
-      </c>
-      <c r="H271" s="2">
-        <v>20201</v>
-      </c>
-      <c r="I271" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J271" s="14">
-        <v>2</v>
-      </c>
-      <c r="K271" s="2">
-        <v>10102</v>
-      </c>
-      <c r="L271" s="62"/>
-      <c r="M271" s="2">
-        <v>2</v>
-      </c>
-      <c r="N271" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18">
-      <c r="E272" s="2">
+    </row>
+    <row r="367" spans="2:13">
+      <c r="E367" s="2">
         <v>3</v>
       </c>
-      <c r="F272" s="2"/>
-      <c r="G272" s="2">
-        <v>20103</v>
-      </c>
-      <c r="H272" s="2">
-        <v>20201</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J272" s="14">
-        <v>3</v>
-      </c>
-      <c r="K272" s="2">
-        <v>10103</v>
-      </c>
-      <c r="L272" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M272" s="2">
-        <v>3</v>
-      </c>
-      <c r="N272" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="2:18">
-      <c r="H273" s="1"/>
-      <c r="I273" s="7"/>
-      <c r="K273" s="34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="274" spans="2:18">
-      <c r="H274" s="1"/>
-      <c r="I274" s="7"/>
-      <c r="K274" s="34" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="275" spans="2:18">
-      <c r="H275" s="1"/>
-      <c r="I275" s="7"/>
-      <c r="K275" s="34" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="276" spans="2:18">
-      <c r="H276" s="1"/>
-      <c r="I276" s="7"/>
-      <c r="K276" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="R276" s="7"/>
-    </row>
-    <row r="278" spans="2:18">
-      <c r="B278">
-        <v>3</v>
-      </c>
-      <c r="C278" t="s">
-        <v>356</v>
-      </c>
-      <c r="D278" t="s">
-        <v>235</v>
-      </c>
-      <c r="E278" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F278" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G278" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H278" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I278" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="J278" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="K278" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L278" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="M278" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="N278" s="10" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="279" spans="2:18">
-      <c r="C279" t="s">
-        <v>258</v>
-      </c>
-      <c r="E279" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F279" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G279" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H279" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I279" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J279" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="K279" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="L279" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="M279" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N279" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="280" spans="2:18">
-      <c r="E280" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F280" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G280" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H280" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I280" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J280" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="K280" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="L280" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="M280" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="N280" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="281" spans="2:18">
-      <c r="D281" t="s">
-        <v>217</v>
-      </c>
-      <c r="E281" s="11"/>
-      <c r="F281" s="11"/>
-      <c r="G281" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H281" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I281" s="11"/>
-      <c r="J281" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="K281" s="11"/>
-      <c r="L281" s="21"/>
-      <c r="M281" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="N281" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="2:18">
-      <c r="D282" t="s">
-        <v>222</v>
-      </c>
-      <c r="E282" s="2">
-        <v>1</v>
-      </c>
-      <c r="F282" s="2"/>
-      <c r="G282" s="2">
-        <v>30101</v>
-      </c>
-      <c r="H282" s="2">
-        <v>30201</v>
-      </c>
-      <c r="I282" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="J282" s="14">
-        <v>1</v>
-      </c>
-      <c r="K282" s="2">
-        <v>10101</v>
-      </c>
-      <c r="L282" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M282" s="2">
-        <v>1</v>
-      </c>
-      <c r="N282" s="2">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="283" spans="2:18">
-      <c r="E283" s="2">
-        <v>2</v>
-      </c>
-      <c r="F283" s="2"/>
-      <c r="G283" s="2">
-        <v>30101</v>
-      </c>
-      <c r="H283" s="2">
-        <v>30201</v>
-      </c>
-      <c r="I283" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J283" s="14">
-        <v>2</v>
-      </c>
-      <c r="K283" s="2">
-        <v>10102</v>
-      </c>
-      <c r="L283" s="62">
-        <v>-1</v>
-      </c>
-      <c r="M283" s="2">
-        <v>2</v>
-      </c>
-      <c r="N283" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="284" spans="2:18">
-      <c r="D284" t="s">
-        <v>19</v>
-      </c>
-      <c r="K284" s="34" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="285" spans="2:18">
-      <c r="K285" s="34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="287" spans="2:18">
-      <c r="B287">
-        <v>4</v>
-      </c>
-      <c r="C287" t="s">
-        <v>357</v>
-      </c>
-      <c r="D287" t="s">
-        <v>235</v>
-      </c>
-      <c r="E287" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F287" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G287" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="288" spans="2:18">
-      <c r="C288" t="s">
-        <v>265</v>
-      </c>
-      <c r="E288" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F288" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G288" s="10" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="289" spans="2:13">
-      <c r="E289" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F289" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G289" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="290" spans="2:13">
-      <c r="D290" t="s">
-        <v>267</v>
-      </c>
-      <c r="E290" s="11"/>
-      <c r="F290" s="11"/>
-      <c r="G290" s="11"/>
-    </row>
-    <row r="291" spans="2:13">
-      <c r="D291" t="s">
-        <v>222</v>
-      </c>
-      <c r="E291" s="2">
-        <v>1</v>
-      </c>
-      <c r="F291" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G291" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292" spans="2:13">
-      <c r="E292" s="2">
-        <v>2</v>
-      </c>
-      <c r="F292" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="G292" s="2">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="293" spans="2:13">
-      <c r="E293" s="2">
-        <v>3</v>
-      </c>
-      <c r="F293" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="G293" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="294" spans="2:13">
-      <c r="E294" s="18">
-        <v>4</v>
-      </c>
-      <c r="F294" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="G294" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="295" spans="2:13">
-      <c r="D295" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="298" spans="2:13">
-      <c r="B298">
-        <v>6</v>
-      </c>
-      <c r="C298" t="s">
-        <v>272</v>
-      </c>
-      <c r="D298" t="s">
-        <v>235</v>
-      </c>
-      <c r="E298" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F298" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G298" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="H298" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="I298" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="J298" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="K298" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="L298" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="M298" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="299" spans="2:13">
-      <c r="C299" t="s">
-        <v>275</v>
-      </c>
-      <c r="E299" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F299" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G299" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="H299" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I299" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J299" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K299" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L299" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M299" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="300" spans="2:13">
-      <c r="E300" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F300" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G300" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="H300" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I300" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J300" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K300" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="L300" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="M300" s="10" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="301" spans="2:13">
-      <c r="D301" t="s">
-        <v>217</v>
-      </c>
-      <c r="E301" s="11"/>
-      <c r="F301" s="11"/>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="11"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="11"/>
-    </row>
-    <row r="302" spans="2:13">
-      <c r="D302" t="s">
-        <v>221</v>
-      </c>
-      <c r="E302" s="2">
-        <v>10101</v>
-      </c>
-      <c r="F302" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G302" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="H302" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I302" s="2"/>
-      <c r="J302" s="2"/>
-      <c r="K302" s="2"/>
-      <c r="L302" s="2"/>
-      <c r="M302" s="2"/>
-    </row>
-    <row r="303" spans="2:13">
-      <c r="E303" s="2">
-        <v>10102</v>
-      </c>
-      <c r="F303" s="2"/>
-      <c r="G303" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="H303" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I303" s="2"/>
-      <c r="J303" s="2"/>
-      <c r="K303" s="2"/>
-      <c r="L303" s="2"/>
-      <c r="M303" s="2"/>
-    </row>
-    <row r="304" spans="2:13">
-      <c r="E304" s="2">
-        <v>10103</v>
-      </c>
-      <c r="F304" s="2"/>
-      <c r="G304" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H304" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I304" s="2"/>
-      <c r="J304" s="2"/>
-      <c r="K304" s="2"/>
-      <c r="L304" s="2"/>
-      <c r="M304" s="2"/>
-    </row>
-    <row r="305" spans="2:11">
-      <c r="D305" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="306" spans="2:11">
-      <c r="E306" s="13" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="307" spans="2:11">
-      <c r="E307" s="13" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="308" spans="2:11">
-      <c r="E308" s="13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="310" spans="2:11">
-      <c r="B310">
-        <v>7</v>
-      </c>
-      <c r="C310" t="s">
-        <v>358</v>
-      </c>
-      <c r="D310" t="s">
-        <v>235</v>
-      </c>
-      <c r="E310" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F310" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G310" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H310" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="I310" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="J310" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K310" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="311" spans="2:11">
-      <c r="C311" t="s">
-        <v>288</v>
-      </c>
-      <c r="E311" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F311" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G311" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H311" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="I311" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="J311" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K311" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="312" spans="2:11">
-      <c r="E312" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F312" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="G312" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H312" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="I312" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="J312" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="K312" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="313" spans="2:11">
-      <c r="D313" t="s">
-        <v>217</v>
-      </c>
-      <c r="E313" s="11"/>
-      <c r="F313" s="11"/>
-      <c r="G313" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H313" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="I313" s="11"/>
-      <c r="J313" s="11"/>
-      <c r="K313" s="11"/>
-    </row>
-    <row r="314" spans="2:11">
-      <c r="D314" t="s">
-        <v>222</v>
-      </c>
-      <c r="E314" s="2">
-        <v>1</v>
-      </c>
-      <c r="F314" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G314" s="2">
-        <v>40101</v>
-      </c>
-      <c r="H314" s="2">
-        <v>41101</v>
-      </c>
-      <c r="I314" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="J314" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="K314" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="2:11">
-      <c r="E315" s="2">
-        <v>2</v>
-      </c>
-      <c r="F315" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G315" s="2">
-        <v>40102</v>
-      </c>
-      <c r="H315" s="2">
-        <v>41102</v>
-      </c>
-      <c r="I315" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J315" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K315" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="2:11">
-      <c r="E316" s="2">
-        <v>3</v>
-      </c>
-      <c r="F316" s="2" t="s">
+      <c r="F367" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G316" s="2">
+      <c r="G367" s="2">
         <v>40103</v>
       </c>
-      <c r="H316" s="2">
+      <c r="H367" s="2">
         <v>41103</v>
       </c>
-      <c r="I316" s="2" t="s">
+      <c r="I367" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J316" s="2" t="s">
+      <c r="J367" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="K316" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="2:11">
-      <c r="E317" s="2">
-        <v>4</v>
-      </c>
-      <c r="F317" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G317" s="2">
-        <v>40104</v>
-      </c>
-      <c r="H317" s="2">
-        <v>41104</v>
-      </c>
-      <c r="I317" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J317" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K317" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="2:11">
-      <c r="E318" s="2">
-        <v>5</v>
-      </c>
-      <c r="F318" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="G318" s="2">
-        <v>40105</v>
-      </c>
-      <c r="H318" s="2">
-        <v>41105</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J318" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K318" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="2:11">
-      <c r="D319" t="s">
-        <v>229</v>
-      </c>
-      <c r="K319" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="320" spans="2:11">
-      <c r="K320" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="323" spans="2:21">
-      <c r="B323">
-        <v>8</v>
-      </c>
-      <c r="C323" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="324" spans="2:21">
-      <c r="C324" t="s">
-        <v>298</v>
-      </c>
-      <c r="D324" t="s">
-        <v>235</v>
-      </c>
-      <c r="E324" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F324" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G324" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H324" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="I324" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J324" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="K324" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L324" s="60" t="s">
-        <v>305</v>
-      </c>
-      <c r="M324" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="N324" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="O324" s="49" t="s">
-        <v>431</v>
-      </c>
-      <c r="P324" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q324" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="R324" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="S324" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="T324" s="20" t="s">
-        <v>547</v>
-      </c>
-      <c r="U324" s="18"/>
-    </row>
-    <row r="325" spans="2:21">
-      <c r="E325" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F325" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G325" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H325" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I325" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="J325" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K325" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="L325" s="60" t="s">
-        <v>257</v>
-      </c>
-      <c r="M325" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="N325" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="O325" s="21" t="s">
-        <v>461</v>
-      </c>
-      <c r="P325" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q325" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="R325" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="S325" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="T325" s="20" t="s">
-        <v>546</v>
-      </c>
-      <c r="U325" s="18"/>
-    </row>
-    <row r="326" spans="2:21">
-      <c r="E326" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F326" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G326" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H326" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I326" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="J326" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="K326" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="L326" s="60" t="s">
-        <v>215</v>
-      </c>
-      <c r="M326" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="N326" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="O326" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="P326" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q326" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="R326" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="S326" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="T326" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="U326" s="18"/>
-    </row>
-    <row r="327" spans="2:21">
-      <c r="D327" t="s">
-        <v>217</v>
-      </c>
-      <c r="E327" s="11"/>
-      <c r="F327" s="11"/>
-      <c r="G327" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="H327" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="I327" s="11"/>
-      <c r="J327" s="11"/>
-      <c r="K327" s="11"/>
-      <c r="L327" s="61"/>
-      <c r="M327" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="N327" s="11"/>
-      <c r="O327" s="21"/>
-      <c r="P327" s="21"/>
-      <c r="Q327" s="21"/>
-      <c r="R327" s="11"/>
-      <c r="S327" s="11"/>
-      <c r="T327" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="U327" s="18"/>
-    </row>
-    <row r="328" spans="2:21">
-      <c r="D328" t="s">
-        <v>222</v>
-      </c>
-      <c r="E328" s="20">
-        <v>1</v>
-      </c>
-      <c r="F328" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G328" s="20">
-        <v>50101</v>
-      </c>
-      <c r="H328" s="20">
-        <v>50201</v>
-      </c>
-      <c r="I328" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="J328" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="K328" s="20">
-        <v>1</v>
-      </c>
-      <c r="L328" s="60"/>
-      <c r="M328" s="20">
-        <v>120</v>
-      </c>
-      <c r="N328" s="20">
-        <v>-1</v>
-      </c>
-      <c r="O328" s="20">
-        <v>0</v>
-      </c>
-      <c r="P328" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="20">
-        <v>10105</v>
-      </c>
-      <c r="R328" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="S328" s="50">
-        <v>0</v>
-      </c>
-      <c r="T328" s="20">
-        <v>100</v>
-      </c>
-      <c r="U328" s="18"/>
-    </row>
-    <row r="329" spans="2:21">
-      <c r="E329" s="2">
-        <v>1</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G329" s="2">
-        <v>50102</v>
-      </c>
-      <c r="H329" s="2">
-        <v>50202</v>
-      </c>
-      <c r="I329" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J329" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K329" s="12" t="s">
-        <v>572</v>
-      </c>
-      <c r="L329" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="M329" s="2">
-        <v>0</v>
-      </c>
-      <c r="N329" s="2">
-        <v>10</v>
-      </c>
-      <c r="O329" s="20">
-        <v>5</v>
-      </c>
-      <c r="P329" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="20">
-        <v>10102</v>
-      </c>
-      <c r="R329" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="S329" s="29">
-        <v>1</v>
-      </c>
-      <c r="T329" s="20">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="330" spans="2:21">
-      <c r="E330" s="2">
-        <v>2</v>
-      </c>
-      <c r="F330" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G330" s="2">
-        <v>50103</v>
-      </c>
-      <c r="H330" s="2">
-        <v>50203</v>
-      </c>
-      <c r="I330" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J330" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K330" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="L330" s="63" t="s">
-        <v>544</v>
-      </c>
-      <c r="M330" s="2">
-        <v>0</v>
-      </c>
-      <c r="N330" s="2">
-        <v>10</v>
-      </c>
-      <c r="O330" s="20">
-        <v>5</v>
-      </c>
-      <c r="P330" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q330" s="20">
-        <v>10102</v>
-      </c>
-      <c r="R330" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="S330" s="29">
-        <v>1</v>
-      </c>
-      <c r="T330" s="20">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="331" spans="2:21">
-      <c r="E331" s="2">
-        <v>3</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G331" s="2">
-        <v>50104</v>
-      </c>
-      <c r="H331" s="2">
-        <v>50204</v>
-      </c>
-      <c r="I331" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J331" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K331" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="L331" s="60">
-        <v>420</v>
-      </c>
-      <c r="M331" s="2">
-        <v>120</v>
-      </c>
-      <c r="N331" s="2">
-        <v>10</v>
-      </c>
-      <c r="O331" s="20">
-        <v>5</v>
-      </c>
-      <c r="P331" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q331" s="20">
-        <v>10104</v>
-      </c>
-      <c r="R331" s="2">
-        <v>4</v>
-      </c>
-      <c r="S331" s="29">
-        <v>0</v>
-      </c>
-      <c r="T331" s="20">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="332" spans="2:21">
-      <c r="E332" s="2">
-        <v>4</v>
-      </c>
-      <c r="F332" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G332" s="2">
-        <v>50105</v>
-      </c>
-      <c r="H332" s="2">
-        <v>50205</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J332" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K332" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="L332" s="60">
-        <v>840</v>
-      </c>
-      <c r="M332" s="2">
-        <v>0</v>
-      </c>
-      <c r="N332" s="2">
-        <v>3</v>
-      </c>
-      <c r="O332" s="20">
-        <v>3</v>
-      </c>
-      <c r="P332" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q332" s="20"/>
-      <c r="R332" s="2">
-        <v>0</v>
-      </c>
-      <c r="S332" s="29">
-        <v>0</v>
-      </c>
-      <c r="T332" s="20">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="333" spans="2:21">
-      <c r="E333" s="2">
-        <v>5</v>
-      </c>
-      <c r="F333" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G333" s="2">
-        <v>50106</v>
-      </c>
-      <c r="H333" s="2">
-        <v>50206</v>
-      </c>
-      <c r="I333" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J333" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K333" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="L333" s="60">
-        <v>2</v>
-      </c>
-      <c r="M333" s="2">
-        <v>0</v>
-      </c>
-      <c r="N333" s="2">
-        <v>10</v>
-      </c>
-      <c r="O333" s="20">
-        <v>10</v>
-      </c>
-      <c r="P333" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q333" s="20"/>
-      <c r="R333" s="2">
-        <v>6</v>
-      </c>
-      <c r="S333" s="29">
-        <v>0</v>
-      </c>
-      <c r="T333" s="20">
-        <v>11200</v>
-      </c>
-    </row>
-    <row r="334" spans="2:21">
-      <c r="E334" s="20">
-        <v>7</v>
-      </c>
-      <c r="F334" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G334" s="20">
-        <v>50107</v>
-      </c>
-      <c r="H334" s="20">
-        <v>50207</v>
-      </c>
-      <c r="I334" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="J334" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K334" s="20">
-        <v>6</v>
-      </c>
-      <c r="L334" s="60">
-        <v>2</v>
-      </c>
-      <c r="M334" s="20">
-        <v>600</v>
-      </c>
-      <c r="N334" s="20">
-        <v>1</v>
-      </c>
-      <c r="O334" s="20">
-        <v>1</v>
-      </c>
-      <c r="P334" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q334" s="20">
-        <v>10103</v>
-      </c>
-      <c r="R334" s="20">
-        <v>7</v>
-      </c>
-      <c r="S334" s="50">
-        <v>1</v>
-      </c>
-      <c r="T334" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="2:21">
-      <c r="E335" s="20">
-        <v>8</v>
-      </c>
-      <c r="F335" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G335" s="20">
-        <v>50108</v>
-      </c>
-      <c r="H335" s="20">
-        <v>50208</v>
-      </c>
-      <c r="I335" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J335" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="K335" s="20">
-        <v>7</v>
-      </c>
-      <c r="L335" s="60">
-        <v>2</v>
-      </c>
-      <c r="M335" s="20">
-        <v>1200</v>
-      </c>
-      <c r="N335" s="20">
-        <v>1</v>
-      </c>
-      <c r="O335" s="20">
-        <v>1</v>
-      </c>
-      <c r="P335" s="20">
-        <v>2</v>
-      </c>
-      <c r="Q335" s="20">
-        <v>10108</v>
-      </c>
-      <c r="R335" s="20">
-        <v>8</v>
-      </c>
-      <c r="S335" s="50">
-        <v>1</v>
-      </c>
-      <c r="T335" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="2:21">
-      <c r="D336" t="s">
-        <v>229</v>
-      </c>
-      <c r="K336" s="64" t="s">
-        <v>316</v>
-      </c>
-      <c r="M336" t="s">
-        <v>317</v>
-      </c>
-      <c r="N336" t="s">
-        <v>360</v>
-      </c>
-      <c r="P336" s="21" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q336" s="21"/>
-    </row>
-    <row r="337" spans="2:17">
-      <c r="K337" s="34" t="s">
-        <v>542</v>
-      </c>
-      <c r="P337" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q337" s="21"/>
-    </row>
-    <row r="338" spans="2:17">
-      <c r="K338" s="34" t="s">
-        <v>543</v>
-      </c>
-      <c r="P338" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q338" s="21"/>
-    </row>
-    <row r="339" spans="2:17">
-      <c r="K339" s="34" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="340" spans="2:17">
-      <c r="K340" s="34" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="341" spans="2:17">
-      <c r="K341" s="64" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="342" spans="2:17">
-      <c r="K342" s="64" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="343" spans="2:17">
-      <c r="K343" s="65" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="345" spans="2:17">
-      <c r="B345">
-        <v>9</v>
-      </c>
-      <c r="C345" t="s">
-        <v>359</v>
-      </c>
-      <c r="D345" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="346" spans="2:17">
-      <c r="C346" t="s">
-        <v>337</v>
-      </c>
-      <c r="E346" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F346" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G346" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="H346" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="I346" s="10" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="2:17">
-      <c r="E347" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F347" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G347" s="10" t="s">
-        <v>340</v>
-      </c>
-      <c r="H347" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="I347" s="10" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="2:17">
-      <c r="E348" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F348" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="G348" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="H348" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="I348" s="10" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="349" spans="2:17">
-      <c r="D349" t="s">
-        <v>217</v>
-      </c>
-      <c r="E349" s="11"/>
-      <c r="F349" s="11"/>
-      <c r="G349" s="11"/>
-      <c r="H349" s="11"/>
-      <c r="I349" s="11"/>
-    </row>
-    <row r="350" spans="2:17">
-      <c r="D350" t="s">
-        <v>221</v>
-      </c>
-      <c r="E350" s="2">
-        <v>1</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G350" s="2">
-        <v>1</v>
-      </c>
-      <c r="H350" s="2">
-        <v>1</v>
-      </c>
-      <c r="I350" s="22">
-        <v>10105</v>
-      </c>
-    </row>
-    <row r="351" spans="2:17">
-      <c r="E351" s="2">
-        <v>2</v>
-      </c>
-      <c r="F351" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G351" s="2">
-        <v>1</v>
-      </c>
-      <c r="H351" s="2">
-        <v>1</v>
-      </c>
-      <c r="I351" s="22">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="352" spans="2:17">
-      <c r="E352" s="2">
-        <v>3</v>
-      </c>
-      <c r="F352" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G352" s="2">
-        <v>1</v>
-      </c>
-      <c r="H352" s="2">
-        <v>1</v>
-      </c>
-      <c r="I352" s="22">
-        <v>10102</v>
-      </c>
-    </row>
-    <row r="353" spans="2:23">
-      <c r="E353" s="2">
-        <v>4</v>
-      </c>
-      <c r="F353" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G353" s="2">
-        <v>1</v>
-      </c>
-      <c r="H353" s="2">
-        <v>1</v>
-      </c>
-      <c r="I353" s="22">
-        <v>10104</v>
-      </c>
-    </row>
-    <row r="354" spans="2:23">
-      <c r="E354" s="20">
-        <v>5</v>
-      </c>
-      <c r="F354" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="G354" s="20">
-        <v>0</v>
-      </c>
-      <c r="H354" s="20"/>
-      <c r="I354" s="20"/>
-    </row>
-    <row r="355" spans="2:23">
-      <c r="E355" s="2">
-        <v>6</v>
-      </c>
-      <c r="F355" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G355" s="2">
-        <v>0</v>
-      </c>
-      <c r="H355" s="2"/>
-      <c r="I355" s="22"/>
-    </row>
-    <row r="356" spans="2:23">
-      <c r="E356" s="2">
-        <v>7</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="G356" s="2">
-        <v>1</v>
-      </c>
-      <c r="H356" s="2">
-        <v>2</v>
-      </c>
-      <c r="I356" s="22">
-        <v>10103</v>
-      </c>
-    </row>
-    <row r="357" spans="2:23">
-      <c r="E357" s="2">
-        <v>8</v>
-      </c>
-      <c r="F357" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G357" s="2">
-        <v>1</v>
-      </c>
-      <c r="H357" s="2">
-        <v>2</v>
-      </c>
-      <c r="I357" s="22">
-        <v>10108</v>
-      </c>
-    </row>
-    <row r="358" spans="2:23">
-      <c r="E358" s="25"/>
-      <c r="F358" s="25"/>
-      <c r="G358" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="359" spans="2:23">
-      <c r="E359" s="25"/>
-      <c r="F359" s="25"/>
-      <c r="G359" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="360" spans="2:23">
-      <c r="E360" s="25"/>
-      <c r="F360" s="25"/>
-      <c r="G360" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="361" spans="2:23">
-      <c r="E361" s="25"/>
-      <c r="F361" s="25"/>
-    </row>
-    <row r="362" spans="2:23">
-      <c r="B362">
-        <v>10</v>
-      </c>
-      <c r="C362" t="s">
-        <v>324</v>
-      </c>
-      <c r="D362" s="26"/>
-    </row>
-    <row r="363" spans="2:23">
-      <c r="C363" t="s">
-        <v>325</v>
-      </c>
-      <c r="D363" t="s">
-        <v>235</v>
-      </c>
-      <c r="E363" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F363" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G363" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="H363" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="I363" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="J363" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="K363" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="L363" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="M363" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="N363" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="O363" s="10" t="s">
-        <v>617</v>
-      </c>
-      <c r="P363" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q363" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="R363" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="S363" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="T363" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="U363" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="V363" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="W363" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="364" spans="2:23">
-      <c r="E364" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F364" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G364" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="H364" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="I364" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J364" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="K364" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="L364" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="M364" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="N364" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="O364" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="P364" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="Q364" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="R364" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="S364" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="T364" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="U364" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="V364" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="W364" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="365" spans="2:23">
-      <c r="E365" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F365" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G365" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="H365" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="I365" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="J365" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="K365" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L365" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="M365" s="20" t="s">
-        <v>571</v>
-      </c>
-      <c r="N365" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="O365" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="P365" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q365" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="R365" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="S365" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="T365" s="20" t="s">
-        <v>382</v>
-      </c>
-      <c r="U365" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="V365" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="W365" s="10" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="366" spans="2:23">
-      <c r="D366" t="s">
-        <v>217</v>
-      </c>
-      <c r="E366" s="11"/>
-      <c r="F366" s="11"/>
-      <c r="G366" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="H366" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="I366" s="21"/>
-      <c r="J366" s="11"/>
-      <c r="K366" s="11"/>
-      <c r="L366" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="M366" s="21"/>
-      <c r="N366" s="21"/>
-      <c r="O366" s="66" t="s">
-        <v>577</v>
-      </c>
-      <c r="P366" s="66" t="s">
-        <v>578</v>
-      </c>
-      <c r="Q366" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="R366" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S366" s="11"/>
-      <c r="T366" s="21"/>
-      <c r="U366" s="67" t="s">
-        <v>427</v>
-      </c>
-      <c r="V366" s="11"/>
-      <c r="W366" s="11"/>
-    </row>
-    <row r="367" spans="2:23">
-      <c r="D367" t="s">
-        <v>221</v>
-      </c>
-      <c r="E367" s="2">
-        <v>1</v>
-      </c>
-      <c r="F367" s="2"/>
-      <c r="G367" s="20">
-        <v>60101</v>
-      </c>
-      <c r="H367" s="20">
-        <v>60201</v>
-      </c>
-      <c r="I367" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="J367" s="2">
-        <v>1</v>
       </c>
       <c r="K367" s="2">
         <v>1</v>
       </c>
-      <c r="L367" s="2">
-        <v>60301</v>
-      </c>
-      <c r="M367" s="68"/>
-      <c r="N367" s="20">
-        <v>1200</v>
-      </c>
-      <c r="O367" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="P367" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q367" s="12">
-        <v>2</v>
-      </c>
-      <c r="R367" s="12">
-        <v>50</v>
-      </c>
-      <c r="S367" s="29">
-        <v>9999</v>
-      </c>
-      <c r="T367" s="20">
-        <v>1</v>
-      </c>
-      <c r="U367" s="20">
-        <v>500000</v>
-      </c>
-      <c r="V367" s="22"/>
-      <c r="W367" s="2"/>
-    </row>
-    <row r="368" spans="2:23">
+    </row>
+    <row r="368" spans="2:13">
       <c r="E368" s="2">
-        <v>2</v>
-      </c>
-      <c r="F368" s="2"/>
-      <c r="G368" s="20">
-        <v>60102</v>
-      </c>
-      <c r="H368" s="20">
-        <v>60202</v>
-      </c>
-      <c r="I368" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J368" s="2">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G368" s="2">
+        <v>40104</v>
+      </c>
+      <c r="H368" s="2">
+        <v>41104</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J368" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K368" s="2">
         <v>1</v>
       </c>
-      <c r="L368" s="2"/>
-      <c r="M368" s="68"/>
-      <c r="N368" s="20">
+    </row>
+    <row r="369" spans="2:21">
+      <c r="E369" s="2">
+        <v>5</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G369" s="2">
+        <v>40105</v>
+      </c>
+      <c r="H369" s="2">
+        <v>41105</v>
+      </c>
+      <c r="I369" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J369" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K369" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="2:21">
+      <c r="D370" t="s">
+        <v>229</v>
+      </c>
+      <c r="K370" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="371" spans="2:21">
+      <c r="K371" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="374" spans="2:21">
+      <c r="B374">
+        <v>8</v>
+      </c>
+      <c r="C374" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="375" spans="2:21">
+      <c r="C375" t="s">
+        <v>298</v>
+      </c>
+      <c r="D375" t="s">
+        <v>235</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F375" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G375" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H375" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="I375" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="J375" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="K375" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L375" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="M375" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="N375" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="O375" s="49" t="s">
+        <v>431</v>
+      </c>
+      <c r="P375" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q375" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="R375" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="S375" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="T375" s="20" t="s">
+        <v>546</v>
+      </c>
+      <c r="U375" s="18"/>
+    </row>
+    <row r="376" spans="2:21">
+      <c r="E376" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F376" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G376" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H376" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I376" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J376" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K376" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="L376" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="M376" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="N376" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="O376" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="P376" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q376" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="R376" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="S376" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="T376" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="U376" s="18"/>
+    </row>
+    <row r="377" spans="2:21">
+      <c r="E377" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F377" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G377" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H377" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I377" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="J377" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="K377" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="L377" s="60" t="s">
+        <v>215</v>
+      </c>
+      <c r="M377" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="N377" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="O377" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="P377" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q377" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="R377" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="S377" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="T377" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="U377" s="18"/>
+    </row>
+    <row r="378" spans="2:21">
+      <c r="D378" t="s">
+        <v>217</v>
+      </c>
+      <c r="E378" s="11"/>
+      <c r="F378" s="11"/>
+      <c r="G378" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="H378" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I378" s="11"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="11"/>
+      <c r="L378" s="61"/>
+      <c r="M378" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="N378" s="11"/>
+      <c r="O378" s="21"/>
+      <c r="P378" s="21"/>
+      <c r="Q378" s="21"/>
+      <c r="R378" s="11"/>
+      <c r="S378" s="11"/>
+      <c r="T378" s="21" t="s">
+        <v>506</v>
+      </c>
+      <c r="U378" s="18"/>
+    </row>
+    <row r="379" spans="2:21">
+      <c r="D379" t="s">
+        <v>222</v>
+      </c>
+      <c r="E379" s="20">
+        <v>1</v>
+      </c>
+      <c r="F379" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G379" s="20">
+        <v>50101</v>
+      </c>
+      <c r="H379" s="20">
+        <v>50201</v>
+      </c>
+      <c r="I379" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="J379" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="K379" s="20">
+        <v>1</v>
+      </c>
+      <c r="L379" s="60"/>
+      <c r="M379" s="20">
+        <v>120</v>
+      </c>
+      <c r="N379" s="20">
+        <v>-1</v>
+      </c>
+      <c r="O379" s="20">
+        <v>0</v>
+      </c>
+      <c r="P379" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q379" s="20">
+        <v>10105</v>
+      </c>
+      <c r="R379" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="S379" s="50">
+        <v>0</v>
+      </c>
+      <c r="T379" s="20">
+        <v>100</v>
+      </c>
+      <c r="U379" s="18"/>
+    </row>
+    <row r="380" spans="2:21">
+      <c r="E380" s="2">
+        <v>1</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G380" s="2">
+        <v>50102</v>
+      </c>
+      <c r="H380" s="2">
+        <v>50202</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J380" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K380" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="L380" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="M380" s="2">
+        <v>0</v>
+      </c>
+      <c r="N380" s="2">
+        <v>10</v>
+      </c>
+      <c r="O380" s="20">
+        <v>5</v>
+      </c>
+      <c r="P380" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q380" s="20">
+        <v>10102</v>
+      </c>
+      <c r="R380" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="S380" s="29">
+        <v>1</v>
+      </c>
+      <c r="T380" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="381" spans="2:21">
+      <c r="E381" s="2">
+        <v>2</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G381" s="2">
+        <v>50103</v>
+      </c>
+      <c r="H381" s="2">
+        <v>50203</v>
+      </c>
+      <c r="I381" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J381" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K381" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="L381" s="63" t="s">
+        <v>543</v>
+      </c>
+      <c r="M381" s="2">
+        <v>0</v>
+      </c>
+      <c r="N381" s="2">
+        <v>10</v>
+      </c>
+      <c r="O381" s="20">
+        <v>5</v>
+      </c>
+      <c r="P381" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q381" s="20">
+        <v>10102</v>
+      </c>
+      <c r="R381" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="S381" s="29">
+        <v>1</v>
+      </c>
+      <c r="T381" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="382" spans="2:21">
+      <c r="E382" s="2">
+        <v>3</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G382" s="2">
+        <v>50104</v>
+      </c>
+      <c r="H382" s="2">
+        <v>50204</v>
+      </c>
+      <c r="I382" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J382" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K382" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="L382" s="60">
+        <v>420</v>
+      </c>
+      <c r="M382" s="2">
+        <v>120</v>
+      </c>
+      <c r="N382" s="2">
+        <v>10</v>
+      </c>
+      <c r="O382" s="20">
+        <v>5</v>
+      </c>
+      <c r="P382" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q382" s="20">
+        <v>10104</v>
+      </c>
+      <c r="R382" s="2">
+        <v>4</v>
+      </c>
+      <c r="S382" s="29">
+        <v>0</v>
+      </c>
+      <c r="T382" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="383" spans="2:21">
+      <c r="E383" s="2">
+        <v>4</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G383" s="2">
+        <v>50105</v>
+      </c>
+      <c r="H383" s="2">
+        <v>50205</v>
+      </c>
+      <c r="I383" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J383" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K383" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="L383" s="60">
+        <v>840</v>
+      </c>
+      <c r="M383" s="2">
+        <v>0</v>
+      </c>
+      <c r="N383" s="2">
+        <v>3</v>
+      </c>
+      <c r="O383" s="20">
+        <v>3</v>
+      </c>
+      <c r="P383" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q383" s="20"/>
+      <c r="R383" s="2">
+        <v>0</v>
+      </c>
+      <c r="S383" s="29">
+        <v>0</v>
+      </c>
+      <c r="T383" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="384" spans="2:21">
+      <c r="E384" s="2">
+        <v>5</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G384" s="2">
+        <v>50106</v>
+      </c>
+      <c r="H384" s="2">
+        <v>50206</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J384" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K384" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="L384" s="60">
+        <v>2</v>
+      </c>
+      <c r="M384" s="2">
+        <v>0</v>
+      </c>
+      <c r="N384" s="2">
+        <v>10</v>
+      </c>
+      <c r="O384" s="20">
+        <v>10</v>
+      </c>
+      <c r="P384" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q384" s="20"/>
+      <c r="R384" s="2">
+        <v>6</v>
+      </c>
+      <c r="S384" s="29">
+        <v>0</v>
+      </c>
+      <c r="T384" s="20">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="385" spans="2:20">
+      <c r="E385" s="20">
+        <v>7</v>
+      </c>
+      <c r="F385" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G385" s="20">
+        <v>50107</v>
+      </c>
+      <c r="H385" s="20">
+        <v>50207</v>
+      </c>
+      <c r="I385" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J385" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="K385" s="20">
+        <v>6</v>
+      </c>
+      <c r="L385" s="60">
+        <v>2</v>
+      </c>
+      <c r="M385" s="20">
+        <v>600</v>
+      </c>
+      <c r="N385" s="20">
+        <v>1</v>
+      </c>
+      <c r="O385" s="20">
+        <v>1</v>
+      </c>
+      <c r="P385" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q385" s="20">
+        <v>10103</v>
+      </c>
+      <c r="R385" s="20">
+        <v>7</v>
+      </c>
+      <c r="S385" s="50">
+        <v>1</v>
+      </c>
+      <c r="T385" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="2:20">
+      <c r="E386" s="20">
+        <v>8</v>
+      </c>
+      <c r="F386" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G386" s="20">
+        <v>50108</v>
+      </c>
+      <c r="H386" s="20">
+        <v>50208</v>
+      </c>
+      <c r="I386" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J386" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K386" s="20">
+        <v>7</v>
+      </c>
+      <c r="L386" s="60">
+        <v>2</v>
+      </c>
+      <c r="M386" s="20">
+        <v>1200</v>
+      </c>
+      <c r="N386" s="20">
+        <v>1</v>
+      </c>
+      <c r="O386" s="20">
+        <v>1</v>
+      </c>
+      <c r="P386" s="20">
+        <v>2</v>
+      </c>
+      <c r="Q386" s="20">
+        <v>10108</v>
+      </c>
+      <c r="R386" s="20">
+        <v>8</v>
+      </c>
+      <c r="S386" s="50">
+        <v>1</v>
+      </c>
+      <c r="T386" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="2:20">
+      <c r="D387" t="s">
+        <v>229</v>
+      </c>
+      <c r="K387" s="64" t="s">
+        <v>316</v>
+      </c>
+      <c r="M387" t="s">
+        <v>317</v>
+      </c>
+      <c r="N387" t="s">
+        <v>360</v>
+      </c>
+      <c r="P387" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q387" s="21"/>
+    </row>
+    <row r="388" spans="2:20">
+      <c r="K388" s="34" t="s">
+        <v>541</v>
+      </c>
+      <c r="P388" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q388" s="21"/>
+    </row>
+    <row r="389" spans="2:20">
+      <c r="K389" s="34" t="s">
+        <v>542</v>
+      </c>
+      <c r="P389" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q389" s="21"/>
+    </row>
+    <row r="390" spans="2:20">
+      <c r="K390" s="34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="391" spans="2:20">
+      <c r="K391" s="34" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="392" spans="2:20">
+      <c r="K392" s="64" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="393" spans="2:20">
+      <c r="K393" s="64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="394" spans="2:20">
+      <c r="K394" s="65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="396" spans="2:20">
+      <c r="B396">
+        <v>9</v>
+      </c>
+      <c r="C396" t="s">
+        <v>359</v>
+      </c>
+      <c r="D396" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="397" spans="2:20">
+      <c r="C397" t="s">
+        <v>337</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F397" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G397" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="H397" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="I397" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="398" spans="2:20">
+      <c r="E398" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F398" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G398" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H398" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="I398" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="399" spans="2:20">
+      <c r="E399" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F399" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="G399" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="H399" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="I399" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="400" spans="2:20">
+      <c r="D400" t="s">
+        <v>217</v>
+      </c>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="11"/>
+      <c r="I400" s="11"/>
+    </row>
+    <row r="401" spans="2:23">
+      <c r="D401" t="s">
+        <v>221</v>
+      </c>
+      <c r="E401" s="2">
+        <v>1</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G401" s="2">
+        <v>1</v>
+      </c>
+      <c r="H401" s="2">
+        <v>1</v>
+      </c>
+      <c r="I401" s="22">
+        <v>10105</v>
+      </c>
+    </row>
+    <row r="402" spans="2:23">
+      <c r="E402" s="2">
+        <v>2</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G402" s="2">
+        <v>1</v>
+      </c>
+      <c r="H402" s="2">
+        <v>1</v>
+      </c>
+      <c r="I402" s="22">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="403" spans="2:23">
+      <c r="E403" s="2">
+        <v>3</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G403" s="2">
+        <v>1</v>
+      </c>
+      <c r="H403" s="2">
+        <v>1</v>
+      </c>
+      <c r="I403" s="22">
+        <v>10102</v>
+      </c>
+    </row>
+    <row r="404" spans="2:23">
+      <c r="E404" s="2">
+        <v>4</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G404" s="2">
+        <v>1</v>
+      </c>
+      <c r="H404" s="2">
+        <v>1</v>
+      </c>
+      <c r="I404" s="22">
+        <v>10104</v>
+      </c>
+    </row>
+    <row r="405" spans="2:23">
+      <c r="E405" s="20">
+        <v>5</v>
+      </c>
+      <c r="F405" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G405" s="20">
+        <v>0</v>
+      </c>
+      <c r="H405" s="20"/>
+      <c r="I405" s="20"/>
+    </row>
+    <row r="406" spans="2:23">
+      <c r="E406" s="2">
+        <v>6</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G406" s="2">
+        <v>0</v>
+      </c>
+      <c r="H406" s="2"/>
+      <c r="I406" s="22"/>
+    </row>
+    <row r="407" spans="2:23">
+      <c r="E407" s="2">
+        <v>7</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G407" s="2">
+        <v>1</v>
+      </c>
+      <c r="H407" s="2">
+        <v>2</v>
+      </c>
+      <c r="I407" s="22">
+        <v>10103</v>
+      </c>
+    </row>
+    <row r="408" spans="2:23">
+      <c r="E408" s="2">
+        <v>8</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G408" s="2">
+        <v>1</v>
+      </c>
+      <c r="H408" s="2">
+        <v>2</v>
+      </c>
+      <c r="I408" s="22">
+        <v>10108</v>
+      </c>
+    </row>
+    <row r="409" spans="2:23">
+      <c r="E409" s="25"/>
+      <c r="F409" s="25"/>
+      <c r="G409" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="410" spans="2:23">
+      <c r="E410" s="25"/>
+      <c r="F410" s="25"/>
+      <c r="G410" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="411" spans="2:23">
+      <c r="E411" s="25"/>
+      <c r="F411" s="25"/>
+      <c r="G411" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="412" spans="2:23">
+      <c r="E412" s="25"/>
+      <c r="F412" s="25"/>
+    </row>
+    <row r="413" spans="2:23">
+      <c r="B413">
+        <v>10</v>
+      </c>
+      <c r="C413" t="s">
+        <v>324</v>
+      </c>
+      <c r="D413" s="26"/>
+    </row>
+    <row r="414" spans="2:23">
+      <c r="C414" t="s">
+        <v>325</v>
+      </c>
+      <c r="D414" t="s">
+        <v>235</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G414" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="H414" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="I414" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="J414" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="K414" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="L414" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="M414" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="N414" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="O414" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="P414" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q414" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="R414" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="S414" s="28" t="s">
+        <v>609</v>
+      </c>
+      <c r="T414" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="U414" s="20" t="s">
+        <v>463</v>
+      </c>
+      <c r="V414" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="W414" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="415" spans="2:23">
+      <c r="E415" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G415" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="H415" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="I415" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="J415" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="K415" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="L415" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="M415" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="N415" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="O415" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="P415" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q415" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="R415" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="S415" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="T415" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="U415" s="20" t="s">
+        <v>461</v>
+      </c>
+      <c r="V415" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="W415" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="416" spans="2:23">
+      <c r="E416" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F416" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G416" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="H416" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="I416" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="J416" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="K416" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L416" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="M416" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="N416" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="O416" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P416" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q416" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="R416" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="S416" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="T416" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="U416" s="20" t="s">
+        <v>462</v>
+      </c>
+      <c r="V416" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="W416" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="417" spans="4:29">
+      <c r="D417" t="s">
+        <v>217</v>
+      </c>
+      <c r="E417" s="11"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H417" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I417" s="21"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="11"/>
+      <c r="L417" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="M417" s="21"/>
+      <c r="N417" s="21"/>
+      <c r="O417" s="66" t="s">
+        <v>576</v>
+      </c>
+      <c r="P417" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q417" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="R417" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S417" s="11"/>
+      <c r="T417" s="21"/>
+      <c r="U417" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="V417" s="11"/>
+      <c r="W417" s="11"/>
+    </row>
+    <row r="418" spans="4:29">
+      <c r="D418" t="s">
+        <v>221</v>
+      </c>
+      <c r="E418" s="2">
+        <v>1</v>
+      </c>
+      <c r="F418" s="2"/>
+      <c r="G418" s="20">
+        <v>60101</v>
+      </c>
+      <c r="H418" s="20">
+        <v>60201</v>
+      </c>
+      <c r="I418" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="J418" s="2">
+        <v>1</v>
+      </c>
+      <c r="K418" s="2">
+        <v>1</v>
+      </c>
+      <c r="L418" s="2">
+        <v>60301</v>
+      </c>
+      <c r="M418" s="68"/>
+      <c r="N418" s="20">
+        <v>1200</v>
+      </c>
+      <c r="O418" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="P418" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q418" s="12">
+        <v>2</v>
+      </c>
+      <c r="R418" s="12">
+        <v>50</v>
+      </c>
+      <c r="S418" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T418" s="20">
+        <v>1</v>
+      </c>
+      <c r="U418" s="20">
+        <v>500000</v>
+      </c>
+      <c r="V418" s="22"/>
+      <c r="W418" s="2"/>
+    </row>
+    <row r="419" spans="4:29">
+      <c r="E419" s="2">
+        <v>2</v>
+      </c>
+      <c r="F419" s="2"/>
+      <c r="G419" s="20">
+        <v>60102</v>
+      </c>
+      <c r="H419" s="20">
+        <v>60202</v>
+      </c>
+      <c r="I419" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="J419" s="2">
+        <v>1</v>
+      </c>
+      <c r="K419" s="2">
+        <v>1</v>
+      </c>
+      <c r="L419" s="2"/>
+      <c r="M419" s="68"/>
+      <c r="N419" s="20">
         <v>3600</v>
       </c>
-      <c r="O368" s="12" t="s">
+      <c r="O419" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="P419" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q419" s="12">
+        <v>2</v>
+      </c>
+      <c r="R419" s="12">
+        <v>100</v>
+      </c>
+      <c r="S419" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T419" s="20">
+        <v>1</v>
+      </c>
+      <c r="U419" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="V419" s="22"/>
+      <c r="W419" s="2"/>
+    </row>
+    <row r="420" spans="4:29">
+      <c r="E420" s="2">
+        <v>3</v>
+      </c>
+      <c r="F420" s="2"/>
+      <c r="G420" s="20">
+        <v>60103</v>
+      </c>
+      <c r="H420" s="20">
+        <v>60203</v>
+      </c>
+      <c r="I420" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J420" s="2">
+        <v>1</v>
+      </c>
+      <c r="K420" s="2">
+        <v>2</v>
+      </c>
+      <c r="L420" s="2">
+        <v>60202</v>
+      </c>
+      <c r="M420" s="68"/>
+      <c r="N420" s="20">
+        <v>3</v>
+      </c>
+      <c r="O420" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="P368" s="12" t="s">
+      <c r="P420" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="Q368" s="12">
+      <c r="Q420" s="12">
+        <v>1</v>
+      </c>
+      <c r="R420" s="12">
+        <v>499</v>
+      </c>
+      <c r="S420" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T420" s="20">
+        <v>1</v>
+      </c>
+      <c r="U420" s="20">
+        <v>1500000</v>
+      </c>
+      <c r="V420" s="2"/>
+      <c r="W420" s="2"/>
+      <c r="Z420" s="18"/>
+      <c r="AA420" s="18"/>
+      <c r="AB420" s="18"/>
+      <c r="AC420" s="18"/>
+    </row>
+    <row r="421" spans="4:29">
+      <c r="E421" s="2">
+        <v>4</v>
+      </c>
+      <c r="F421" s="2"/>
+      <c r="G421" s="20">
+        <v>60104</v>
+      </c>
+      <c r="H421" s="20">
+        <v>60204</v>
+      </c>
+      <c r="I421" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J421" s="2">
+        <v>1</v>
+      </c>
+      <c r="K421" s="2">
         <v>2</v>
       </c>
-      <c r="R368" s="12">
-        <v>100</v>
-      </c>
-      <c r="S368" s="29">
+      <c r="L421" s="2"/>
+      <c r="M421" s="68"/>
+      <c r="N421" s="20"/>
+      <c r="O421" s="12"/>
+      <c r="P421" s="12"/>
+      <c r="Q421" s="12">
+        <v>1</v>
+      </c>
+      <c r="R421" s="12">
+        <v>999</v>
+      </c>
+      <c r="S421" s="29">
         <v>9999</v>
       </c>
-      <c r="T368" s="20">
+      <c r="T421" s="20">
+        <v>0</v>
+      </c>
+      <c r="U421" s="20">
+        <v>1000000</v>
+      </c>
+      <c r="V421" s="2"/>
+      <c r="W421" s="2"/>
+      <c r="Z421" s="18"/>
+      <c r="AA421" s="18"/>
+      <c r="AB421" s="18"/>
+      <c r="AC421" s="18"/>
+    </row>
+    <row r="422" spans="4:29">
+      <c r="E422" s="2">
+        <v>5</v>
+      </c>
+      <c r="F422" s="2"/>
+      <c r="G422" s="20">
+        <v>60105</v>
+      </c>
+      <c r="H422" s="20">
+        <v>60205</v>
+      </c>
+      <c r="I422" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J422" s="2">
         <v>1</v>
       </c>
-      <c r="U368" s="20">
-        <v>1000000</v>
-      </c>
-      <c r="V368" s="22"/>
-      <c r="W368" s="2"/>
-    </row>
-    <row r="369" spans="4:29">
-      <c r="E369" s="2">
+      <c r="K422" s="2">
         <v>3</v>
       </c>
-      <c r="F369" s="2"/>
-      <c r="G369" s="20">
-        <v>60103</v>
-      </c>
-      <c r="H369" s="20">
+      <c r="L422" s="2">
         <v>60203</v>
       </c>
-      <c r="I369" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J369" s="2">
+      <c r="M422" s="68"/>
+      <c r="N422" s="20">
+        <v>30</v>
+      </c>
+      <c r="O422" s="12"/>
+      <c r="P422" s="12"/>
+      <c r="Q422" s="12">
+        <v>0</v>
+      </c>
+      <c r="R422" s="12">
         <v>1</v>
       </c>
-      <c r="K369" s="2">
+      <c r="S422" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T422" s="20">
+        <v>1</v>
+      </c>
+      <c r="U422" s="20"/>
+      <c r="V422" s="2"/>
+      <c r="W422" s="2"/>
+      <c r="Z422" s="18"/>
+      <c r="AA422" s="18"/>
+      <c r="AB422" s="18"/>
+      <c r="AC422" s="18"/>
+    </row>
+    <row r="423" spans="4:29">
+      <c r="E423" s="2">
+        <v>6</v>
+      </c>
+      <c r="F423" s="2"/>
+      <c r="G423" s="20">
+        <v>60106</v>
+      </c>
+      <c r="H423" s="20">
+        <v>60206</v>
+      </c>
+      <c r="I423" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J423" s="2">
+        <v>1</v>
+      </c>
+      <c r="K423" s="2">
+        <v>3</v>
+      </c>
+      <c r="L423" s="2"/>
+      <c r="M423" s="68"/>
+      <c r="N423" s="20">
+        <v>60</v>
+      </c>
+      <c r="O423" s="12"/>
+      <c r="P423" s="12"/>
+      <c r="Q423" s="12">
+        <v>0</v>
+      </c>
+      <c r="R423" s="12">
+        <v>1</v>
+      </c>
+      <c r="S423" s="29">
+        <v>9999</v>
+      </c>
+      <c r="T423" s="20">
+        <v>1</v>
+      </c>
+      <c r="U423" s="20"/>
+      <c r="V423" s="2"/>
+      <c r="W423" s="2"/>
+      <c r="Z423" s="18"/>
+      <c r="AA423" s="18"/>
+      <c r="AB423" s="18"/>
+      <c r="AC423" s="18"/>
+    </row>
+    <row r="424" spans="4:29">
+      <c r="E424" s="2">
+        <v>7</v>
+      </c>
+      <c r="F424" s="2"/>
+      <c r="G424" s="20">
+        <v>60107</v>
+      </c>
+      <c r="H424" s="20"/>
+      <c r="I424" s="20"/>
+      <c r="J424" s="2">
         <v>2</v>
       </c>
-      <c r="L369" s="2">
-        <v>60202</v>
-      </c>
-      <c r="M369" s="68"/>
-      <c r="N369" s="20">
-        <v>3</v>
-      </c>
-      <c r="O369" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="P369" s="12" t="s">
+      <c r="K424" s="2"/>
+      <c r="L424" s="2"/>
+      <c r="M424" s="20"/>
+      <c r="N424" s="20"/>
+      <c r="O424" s="12"/>
+      <c r="P424" s="12"/>
+      <c r="Q424" s="12"/>
+      <c r="R424" s="12"/>
+      <c r="S424" s="29"/>
+      <c r="T424" s="20"/>
+      <c r="U424" s="20"/>
+      <c r="V424" s="2"/>
+      <c r="W424" s="2"/>
+      <c r="Z424" s="18"/>
+      <c r="AA424" s="18"/>
+      <c r="AB424" s="18"/>
+      <c r="AC424" s="18"/>
+    </row>
+    <row r="425" spans="4:29">
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="20"/>
+      <c r="H425" s="20"/>
+      <c r="I425" s="20"/>
+      <c r="J425" s="2"/>
+      <c r="K425" s="2"/>
+      <c r="L425" s="2"/>
+      <c r="M425" s="20"/>
+      <c r="N425" s="20"/>
+      <c r="O425" s="2"/>
+      <c r="P425" s="2"/>
+      <c r="Q425" s="2"/>
+      <c r="R425" s="2"/>
+      <c r="S425" s="2"/>
+      <c r="T425" s="20"/>
+      <c r="U425" s="20"/>
+      <c r="V425" s="2"/>
+      <c r="W425" s="2"/>
+      <c r="Z425" s="18"/>
+      <c r="AA425" s="18"/>
+      <c r="AB425" s="18"/>
+      <c r="AC425" s="18"/>
+    </row>
+    <row r="426" spans="4:29">
+      <c r="D426" t="s">
+        <v>229</v>
+      </c>
+      <c r="M426" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="S426" t="s">
+        <v>385</v>
+      </c>
+      <c r="T426" s="34">
+        <v>1</v>
+      </c>
+      <c r="U426" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="427" spans="4:29">
+      <c r="M427" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="S427" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="T427" s="34">
+        <v>1</v>
+      </c>
+      <c r="U427" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="428" spans="4:29">
+      <c r="M428" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="T428" s="34">
+        <v>0</v>
+      </c>
+      <c r="U428" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="429" spans="4:29">
+      <c r="M429" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="T429" s="34">
+        <v>1</v>
+      </c>
+      <c r="U429" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="430" spans="4:29">
+      <c r="M430" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="T430" s="34">
+        <v>1</v>
+      </c>
+      <c r="U430" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="431" spans="4:29">
+      <c r="M431" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="T431" s="34">
+        <v>0</v>
+      </c>
+      <c r="U431" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="432" spans="4:29">
+      <c r="M432" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="T432" s="34">
+        <v>1</v>
+      </c>
+      <c r="U432" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="433" spans="2:21">
+      <c r="M433" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="T433" s="34">
+        <v>1</v>
+      </c>
+      <c r="U433" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="434" spans="2:21">
+      <c r="M434" s="64" t="s">
+        <v>508</v>
+      </c>
+      <c r="T434" s="34">
+        <v>1</v>
+      </c>
+      <c r="U434" s="34"/>
+    </row>
+    <row r="435" spans="2:21">
+      <c r="M435" s="34" t="s">
+        <v>552</v>
+      </c>
+      <c r="T435" s="34">
+        <v>1</v>
+      </c>
+      <c r="U435" s="34" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="436" spans="2:21">
+      <c r="M436" s="64" t="s">
+        <v>553</v>
+      </c>
+      <c r="T436" s="34"/>
+      <c r="U436" s="34"/>
+    </row>
+    <row r="437" spans="2:21">
+      <c r="M437" s="70" t="s">
+        <v>555</v>
+      </c>
+      <c r="T437" s="34">
+        <v>1</v>
+      </c>
+      <c r="U437" s="34" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="438" spans="2:21">
+      <c r="B438">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>596</v>
+      </c>
+      <c r="M438" s="18"/>
+    </row>
+    <row r="439" spans="2:21">
+      <c r="C439" t="s">
+        <v>564</v>
+      </c>
+      <c r="D439" t="s">
+        <v>235</v>
+      </c>
+      <c r="E439" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="Q369" s="12">
+      <c r="F439" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="G439" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="H439" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="I439" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="M439" s="18"/>
+    </row>
+    <row r="440" spans="2:21">
+      <c r="E440" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="F440" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="G440" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="H440" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="I440" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="M440" s="18"/>
+    </row>
+    <row r="441" spans="2:21">
+      <c r="E441" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="F441" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="G441" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="H441" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="I441" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="M441" s="18"/>
+    </row>
+    <row r="442" spans="2:21">
+      <c r="D442" t="s">
+        <v>217</v>
+      </c>
+      <c r="E442" s="2">
+        <v>10101</v>
+      </c>
+      <c r="F442" s="2"/>
+      <c r="G442" s="58">
+        <v>11</v>
+      </c>
+      <c r="H442" s="69">
+        <v>2000</v>
+      </c>
+      <c r="I442" s="20">
+        <v>104</v>
+      </c>
+      <c r="M442" s="18"/>
+    </row>
+    <row r="443" spans="2:21">
+      <c r="D443" t="s">
+        <v>221</v>
+      </c>
+      <c r="E443" s="2">
+        <v>10102</v>
+      </c>
+      <c r="F443" s="2"/>
+      <c r="G443" s="58">
+        <v>11</v>
+      </c>
+      <c r="H443" s="69">
+        <v>2000</v>
+      </c>
+      <c r="I443" s="20">
+        <v>105</v>
+      </c>
+      <c r="M443" s="18"/>
+    </row>
+    <row r="444" spans="2:21">
+      <c r="E444" s="2">
+        <v>10103</v>
+      </c>
+      <c r="F444" s="2"/>
+      <c r="G444" s="58">
+        <v>11</v>
+      </c>
+      <c r="H444" s="69">
+        <v>2000</v>
+      </c>
+      <c r="I444" s="20">
+        <v>106</v>
+      </c>
+      <c r="M444" s="18"/>
+    </row>
+    <row r="445" spans="2:21">
+      <c r="M445" s="18"/>
+    </row>
+    <row r="446" spans="2:21">
+      <c r="D446" t="s">
+        <v>229</v>
+      </c>
+      <c r="F446" s="25" t="s">
+        <v>603</v>
+      </c>
+      <c r="G446" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="H446" s="25"/>
+      <c r="M446" s="18"/>
+    </row>
+    <row r="447" spans="2:21">
+      <c r="F447" s="25"/>
+      <c r="G447" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="H447" s="25"/>
+      <c r="M447" s="18"/>
+    </row>
+    <row r="448" spans="2:21">
+      <c r="F448" s="25"/>
+      <c r="G448" s="18" t="s">
+        <v>618</v>
+      </c>
+      <c r="H448" s="25"/>
+      <c r="M448" s="18"/>
+    </row>
+    <row r="449" spans="5:13">
+      <c r="F449" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="G449" s="18" t="s">
+        <v>619</v>
+      </c>
+      <c r="H449" s="25"/>
+      <c r="M449" s="18"/>
+    </row>
+    <row r="450" spans="5:13">
+      <c r="F450" s="25"/>
+      <c r="G450" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="H450" s="25"/>
+      <c r="M450" s="18"/>
+    </row>
+    <row r="451" spans="5:13">
+      <c r="F451" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="G451" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="H451" s="25"/>
+      <c r="M451" s="18"/>
+    </row>
+    <row r="452" spans="5:13">
+      <c r="F452" s="25"/>
+      <c r="G452" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="H452" s="25"/>
+      <c r="M452" s="18"/>
+    </row>
+    <row r="453" spans="5:13">
+      <c r="F453" s="25"/>
+      <c r="G453" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="H453" s="25"/>
+      <c r="M453" s="18"/>
+    </row>
+    <row r="454" spans="5:13">
+      <c r="F454" s="25"/>
+      <c r="G454" s="18" t="s">
+        <v>624</v>
+      </c>
+      <c r="H454" s="25"/>
+      <c r="M454" s="18"/>
+    </row>
+    <row r="455" spans="5:13">
+      <c r="F455" s="25"/>
+      <c r="G455" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="H455" s="25"/>
+      <c r="M455" s="18"/>
+    </row>
+    <row r="456" spans="5:13">
+      <c r="F456" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="G456" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="H456" s="25"/>
+      <c r="M456" s="18"/>
+    </row>
+    <row r="457" spans="5:13">
+      <c r="F457" s="25"/>
+      <c r="G457" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="H457" s="25"/>
+      <c r="M457" s="18"/>
+    </row>
+    <row r="458" spans="5:13">
+      <c r="G458" s="18" t="s">
+        <v>628</v>
+      </c>
+      <c r="M458" s="18"/>
+    </row>
+    <row r="459" spans="5:13">
+      <c r="F459" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="G459" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="H459" s="25"/>
+      <c r="M459" s="18"/>
+    </row>
+    <row r="460" spans="5:13">
+      <c r="F460" s="25"/>
+      <c r="G460" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="H460" s="25"/>
+      <c r="M460" s="18"/>
+    </row>
+    <row r="461" spans="5:13">
+      <c r="F461" s="25"/>
+      <c r="G461" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="H461" s="25"/>
+      <c r="M461" s="18"/>
+    </row>
+    <row r="462" spans="5:13">
+      <c r="F462" s="25"/>
+      <c r="G462" s="18" t="s">
+        <v>632</v>
+      </c>
+      <c r="H462" s="25"/>
+      <c r="M462" s="18"/>
+    </row>
+    <row r="463" spans="5:13">
+      <c r="E463" s="13" t="s">
+        <v>615</v>
+      </c>
+      <c r="F463" s="25"/>
+      <c r="H463" s="25"/>
+      <c r="M463" s="18"/>
+    </row>
+    <row r="464" spans="5:13">
+      <c r="F464" s="25"/>
+      <c r="G464" s="25"/>
+      <c r="H464" s="25"/>
+      <c r="M464" s="18"/>
+    </row>
+    <row r="465" spans="2:13">
+      <c r="G465" s="25"/>
+      <c r="M465" s="18"/>
+    </row>
+    <row r="466" spans="2:13">
+      <c r="B466">
+        <v>11</v>
+      </c>
+      <c r="M466" s="18"/>
+    </row>
+    <row r="467" spans="2:13">
+      <c r="C467" t="s">
+        <v>597</v>
+      </c>
+      <c r="D467" t="s">
+        <v>598</v>
+      </c>
+      <c r="M467" s="18"/>
+    </row>
+    <row r="468" spans="2:13">
+      <c r="M468" s="18"/>
+    </row>
+    <row r="469" spans="2:13">
+      <c r="M469" s="18"/>
+    </row>
+    <row r="470" spans="2:13">
+      <c r="D470" t="s">
+        <v>599</v>
+      </c>
+      <c r="M470" s="18"/>
+    </row>
+    <row r="471" spans="2:13">
+      <c r="D471" t="s">
+        <v>600</v>
+      </c>
+      <c r="M471" s="18"/>
+    </row>
+    <row r="472" spans="2:13">
+      <c r="M472" s="18"/>
+    </row>
+    <row r="473" spans="2:13">
+      <c r="M473" s="18"/>
+    </row>
+    <row r="474" spans="2:13">
+      <c r="M474" s="18"/>
+    </row>
+    <row r="475" spans="2:13">
+      <c r="M475" s="18"/>
+    </row>
+    <row r="476" spans="2:13">
+      <c r="M476" s="18"/>
+    </row>
+    <row r="477" spans="2:13">
+      <c r="M477" s="18"/>
+    </row>
+    <row r="478" spans="2:13">
+      <c r="M478" s="18"/>
+    </row>
+    <row r="479" spans="2:13">
+      <c r="D479" t="s">
+        <v>601</v>
+      </c>
+      <c r="M479" s="18"/>
+    </row>
+    <row r="480" spans="2:13">
+      <c r="M480" s="18"/>
+    </row>
+    <row r="481" spans="2:27">
+      <c r="M481" s="18"/>
+    </row>
+    <row r="482" spans="2:27">
+      <c r="M482" s="18"/>
+    </row>
+    <row r="483" spans="2:27">
+      <c r="M483" s="18"/>
+    </row>
+    <row r="484" spans="2:27">
+      <c r="M484" s="18"/>
+    </row>
+    <row r="485" spans="2:27">
+      <c r="M485" s="18"/>
+    </row>
+    <row r="486" spans="2:27">
+      <c r="B486">
+        <v>12</v>
+      </c>
+      <c r="D486" s="26"/>
+    </row>
+    <row r="487" spans="2:27" ht="16.5">
+      <c r="C487" t="s">
+        <v>554</v>
+      </c>
+      <c r="D487" t="s">
+        <v>201</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F487" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G487" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H487" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I487" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="J487" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K487" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L487" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M487" s="10"/>
+      <c r="N487" s="10"/>
+      <c r="O487" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="P487" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q487" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="R487" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="S487" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="T487" s="54"/>
+      <c r="U487" s="55"/>
+      <c r="V487" s="54"/>
+      <c r="W487" s="54"/>
+      <c r="X487" s="54"/>
+      <c r="Y487" s="54"/>
+      <c r="Z487" s="54"/>
+      <c r="AA487" s="54"/>
+    </row>
+    <row r="488" spans="2:27" ht="16.5">
+      <c r="E488" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F488" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G488" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H488" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I488" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J488" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="K488" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="L488" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M488" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="N488" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="O488" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="P488" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q488" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="R488" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="S488" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="T488" s="56"/>
+      <c r="U488" s="57"/>
+      <c r="V488" s="56"/>
+      <c r="W488" s="56"/>
+      <c r="X488" s="56"/>
+      <c r="Y488" s="56"/>
+      <c r="Z488" s="56"/>
+      <c r="AA488" s="56"/>
+    </row>
+    <row r="489" spans="2:27" ht="16.5">
+      <c r="E489" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="F489" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G489" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H489" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I489" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J489" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="K489" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L489" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M489" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="N489" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="O489" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="P489" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q489" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="R489" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="S489" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="T489" s="56"/>
+      <c r="U489" s="57"/>
+      <c r="V489" s="56"/>
+      <c r="W489" s="56"/>
+      <c r="X489" s="56"/>
+      <c r="Y489" s="56"/>
+      <c r="Z489" s="56"/>
+      <c r="AA489" s="56"/>
+    </row>
+    <row r="490" spans="2:27">
+      <c r="D490" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="491" spans="2:27">
+      <c r="D491" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="492" spans="2:27">
+      <c r="G492" s="21"/>
+      <c r="H492" s="21"/>
+      <c r="I492" s="21"/>
+      <c r="J492" s="21"/>
+      <c r="K492" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="P492">
         <v>1</v>
       </c>
-      <c r="R369" s="12">
-        <v>499</v>
-      </c>
-      <c r="S369" s="29">
-        <v>9999</v>
-      </c>
-      <c r="T369" s="20">
-        <v>1</v>
-      </c>
-      <c r="U369" s="20">
-        <v>1500000</v>
-      </c>
-      <c r="V369" s="2"/>
-      <c r="W369" s="2"/>
-      <c r="Z369" s="18"/>
-      <c r="AA369" s="18"/>
-      <c r="AB369" s="18"/>
-      <c r="AC369" s="18"/>
-    </row>
-    <row r="370" spans="4:29">
-      <c r="E370" s="2">
-        <v>4</v>
-      </c>
-      <c r="F370" s="2"/>
-      <c r="G370" s="20">
-        <v>60104</v>
-      </c>
-      <c r="H370" s="20">
-        <v>60204</v>
-      </c>
-      <c r="I370" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="J370" s="2">
-        <v>1</v>
-      </c>
-      <c r="K370" s="2">
-        <v>2</v>
-      </c>
-      <c r="L370" s="2"/>
-      <c r="M370" s="68"/>
-      <c r="N370" s="20"/>
-      <c r="O370" s="12"/>
-      <c r="P370" s="12"/>
-      <c r="Q370" s="12">
-        <v>1</v>
-      </c>
-      <c r="R370" s="12">
-        <v>999</v>
-      </c>
-      <c r="S370" s="29">
-        <v>9999</v>
-      </c>
-      <c r="T370" s="20">
-        <v>0</v>
-      </c>
-      <c r="U370" s="20">
-        <v>1000000</v>
-      </c>
-      <c r="V370" s="2"/>
-      <c r="W370" s="2"/>
-      <c r="Z370" s="18"/>
-      <c r="AA370" s="18"/>
-      <c r="AB370" s="18"/>
-      <c r="AC370" s="18"/>
-    </row>
-    <row r="371" spans="4:29">
-      <c r="E371" s="2">
-        <v>5</v>
-      </c>
-      <c r="F371" s="2"/>
-      <c r="G371" s="20">
-        <v>60105</v>
-      </c>
-      <c r="H371" s="20">
-        <v>60205</v>
-      </c>
-      <c r="I371" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="J371" s="2">
-        <v>1</v>
-      </c>
-      <c r="K371" s="2">
-        <v>3</v>
-      </c>
-      <c r="L371" s="2">
-        <v>60203</v>
-      </c>
-      <c r="M371" s="68"/>
-      <c r="N371" s="20">
-        <v>30</v>
-      </c>
-      <c r="O371" s="12"/>
-      <c r="P371" s="12"/>
-      <c r="Q371" s="12">
-        <v>0</v>
-      </c>
-      <c r="R371" s="12">
-        <v>1</v>
-      </c>
-      <c r="S371" s="29">
-        <v>9999</v>
-      </c>
-      <c r="T371" s="20">
-        <v>1</v>
-      </c>
-      <c r="U371" s="20"/>
-      <c r="V371" s="2"/>
-      <c r="W371" s="2"/>
-      <c r="Z371" s="18"/>
-      <c r="AA371" s="18"/>
-      <c r="AB371" s="18"/>
-      <c r="AC371" s="18"/>
-    </row>
-    <row r="372" spans="4:29">
-      <c r="E372" s="2">
-        <v>6</v>
-      </c>
-      <c r="F372" s="2"/>
-      <c r="G372" s="20">
-        <v>60106</v>
-      </c>
-      <c r="H372" s="20">
-        <v>60206</v>
-      </c>
-      <c r="I372" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J372" s="2">
-        <v>1</v>
-      </c>
-      <c r="K372" s="2">
-        <v>3</v>
-      </c>
-      <c r="L372" s="2"/>
-      <c r="M372" s="68"/>
-      <c r="N372" s="20">
-        <v>60</v>
-      </c>
-      <c r="O372" s="12"/>
-      <c r="P372" s="12"/>
-      <c r="Q372" s="12">
-        <v>0</v>
-      </c>
-      <c r="R372" s="12">
-        <v>1</v>
-      </c>
-      <c r="S372" s="29">
-        <v>9999</v>
-      </c>
-      <c r="T372" s="20">
-        <v>1</v>
-      </c>
-      <c r="U372" s="20"/>
-      <c r="V372" s="2"/>
-      <c r="W372" s="2"/>
-      <c r="Z372" s="18"/>
-      <c r="AA372" s="18"/>
-      <c r="AB372" s="18"/>
-      <c r="AC372" s="18"/>
-    </row>
-    <row r="373" spans="4:29">
-      <c r="E373" s="2">
+      <c r="Q492" s="21"/>
+      <c r="R492" s="21"/>
+      <c r="S492" s="21"/>
+    </row>
+    <row r="493" spans="2:27">
+      <c r="K493" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="P493">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="499" spans="2:10">
+      <c r="D499" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="504" spans="2:10">
+      <c r="B504">
+        <v>13</v>
+      </c>
+      <c r="C504" t="s">
+        <v>326</v>
+      </c>
+      <c r="D504" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="505" spans="2:10">
+      <c r="C505" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="507" spans="2:10">
+      <c r="B507">
+        <v>14</v>
+      </c>
+      <c r="C507" t="s">
+        <v>329</v>
+      </c>
+      <c r="D507" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="508" spans="2:10">
+      <c r="C508" t="s">
+        <v>196</v>
+      </c>
+      <c r="E508" t="s">
+        <v>207</v>
+      </c>
+      <c r="F508" t="s">
+        <v>208</v>
+      </c>
+      <c r="G508" t="s">
+        <v>330</v>
+      </c>
+      <c r="H508" t="s">
+        <v>331</v>
+      </c>
+      <c r="I508" t="s">
+        <v>332</v>
+      </c>
+      <c r="J508" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="510" spans="2:10">
+      <c r="B510">
+        <v>15</v>
+      </c>
+      <c r="C510" t="s">
+        <v>334</v>
+      </c>
+      <c r="D510" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F373" s="2"/>
-      <c r="G373" s="20">
-        <v>60107</v>
-      </c>
-      <c r="H373" s="20"/>
-      <c r="I373" s="20"/>
-      <c r="J373" s="2">
-        <v>2</v>
-      </c>
-      <c r="K373" s="2"/>
-      <c r="L373" s="2"/>
-      <c r="M373" s="20"/>
-      <c r="N373" s="20"/>
-      <c r="O373" s="12"/>
-      <c r="P373" s="12"/>
-      <c r="Q373" s="12"/>
-      <c r="R373" s="12"/>
-      <c r="S373" s="29"/>
-      <c r="T373" s="20"/>
-      <c r="U373" s="20"/>
-      <c r="V373" s="2"/>
-      <c r="W373" s="2"/>
-      <c r="Z373" s="18"/>
-      <c r="AA373" s="18"/>
-      <c r="AB373" s="18"/>
-      <c r="AC373" s="18"/>
-    </row>
-    <row r="374" spans="4:29">
-      <c r="E374" s="2"/>
-      <c r="F374" s="2"/>
-      <c r="G374" s="20"/>
-      <c r="H374" s="20"/>
-      <c r="I374" s="20"/>
-      <c r="J374" s="2"/>
-      <c r="K374" s="2"/>
-      <c r="L374" s="2"/>
-      <c r="M374" s="20"/>
-      <c r="N374" s="20"/>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
-      <c r="Q374" s="2"/>
-      <c r="R374" s="2"/>
-      <c r="S374" s="2"/>
-      <c r="T374" s="20"/>
-      <c r="U374" s="20"/>
-      <c r="V374" s="2"/>
-      <c r="W374" s="2"/>
-      <c r="Z374" s="18"/>
-      <c r="AA374" s="18"/>
-      <c r="AB374" s="18"/>
-      <c r="AC374" s="18"/>
-    </row>
-    <row r="375" spans="4:29">
-      <c r="D375" t="s">
-        <v>229</v>
-      </c>
-      <c r="M375" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="S375" t="s">
-        <v>385</v>
-      </c>
-      <c r="T375" s="34">
-        <v>1</v>
-      </c>
-      <c r="U375" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="376" spans="4:29">
-      <c r="M376" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="S376" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="T376" s="34">
-        <v>1</v>
-      </c>
-      <c r="U376" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="377" spans="4:29">
-      <c r="M377" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="T377" s="34">
-        <v>0</v>
-      </c>
-      <c r="U377" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="378" spans="4:29">
-      <c r="M378" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="T378" s="34">
-        <v>1</v>
-      </c>
-      <c r="U378" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="379" spans="4:29">
-      <c r="M379" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="T379" s="34">
-        <v>1</v>
-      </c>
-      <c r="U379" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="380" spans="4:29">
-      <c r="M380" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="T380" s="34">
-        <v>0</v>
-      </c>
-      <c r="U380" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="381" spans="4:29">
-      <c r="M381" s="34" t="s">
-        <v>508</v>
-      </c>
-      <c r="T381" s="34">
-        <v>1</v>
-      </c>
-      <c r="U381" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="382" spans="4:29">
-      <c r="M382" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="T382" s="34">
-        <v>1</v>
-      </c>
-      <c r="U382" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="383" spans="4:29">
-      <c r="M383" s="64" t="s">
-        <v>509</v>
-      </c>
-      <c r="T383" s="34">
-        <v>1</v>
-      </c>
-      <c r="U383" s="34"/>
-    </row>
-    <row r="384" spans="4:29">
-      <c r="M384" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="T384" s="34">
-        <v>1</v>
-      </c>
-      <c r="U384" s="34" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="385" spans="2:21">
-      <c r="M385" s="64" t="s">
-        <v>554</v>
-      </c>
-      <c r="T385" s="34"/>
-      <c r="U385" s="34"/>
-    </row>
-    <row r="386" spans="2:21">
-      <c r="M386" s="70" t="s">
-        <v>556</v>
-      </c>
-      <c r="T386" s="34">
-        <v>1</v>
-      </c>
-      <c r="U386" s="34" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="387" spans="2:21">
-      <c r="B387">
-        <v>11</v>
-      </c>
-      <c r="C387" t="s">
-        <v>611</v>
-      </c>
-      <c r="M387" s="18"/>
-    </row>
-    <row r="388" spans="2:21">
-      <c r="C388" t="s">
-        <v>565</v>
-      </c>
-      <c r="D388" t="s">
-        <v>235</v>
-      </c>
-      <c r="E388" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="F388" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="G388" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="H388" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="I388" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="M388" s="18"/>
-    </row>
-    <row r="389" spans="2:21">
-      <c r="E389" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="F389" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="G389" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="H389" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="I389" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="M389" s="18"/>
-    </row>
-    <row r="390" spans="2:21">
-      <c r="E390" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="F390" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="G390" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="H390" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="I390" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="M390" s="18"/>
-    </row>
-    <row r="391" spans="2:21">
-      <c r="D391" t="s">
-        <v>217</v>
-      </c>
-      <c r="E391" s="2">
-        <v>10101</v>
-      </c>
-      <c r="F391" s="2"/>
-      <c r="G391" s="58">
-        <v>11</v>
-      </c>
-      <c r="H391" s="69">
-        <v>2000</v>
-      </c>
-      <c r="I391" s="2">
-        <v>104</v>
-      </c>
-      <c r="M391" s="18"/>
-    </row>
-    <row r="392" spans="2:21">
-      <c r="D392" t="s">
-        <v>221</v>
-      </c>
-      <c r="E392" s="2">
-        <v>10102</v>
-      </c>
-      <c r="F392" s="2"/>
-      <c r="G392" s="58">
-        <v>11</v>
-      </c>
-      <c r="H392" s="69">
-        <v>2000</v>
-      </c>
-      <c r="I392" s="2">
-        <v>105</v>
-      </c>
-      <c r="M392" s="18"/>
-    </row>
-    <row r="393" spans="2:21">
-      <c r="E393" s="2">
-        <v>10103</v>
-      </c>
-      <c r="F393" s="2"/>
-      <c r="G393" s="58">
-        <v>11</v>
-      </c>
-      <c r="H393" s="69">
-        <v>2000</v>
-      </c>
-      <c r="I393" s="2">
-        <v>106</v>
-      </c>
-      <c r="M393" s="18"/>
-    </row>
-    <row r="394" spans="2:21">
-      <c r="M394" s="18"/>
-    </row>
-    <row r="395" spans="2:21">
-      <c r="D395" t="s">
-        <v>229</v>
-      </c>
-      <c r="F395" s="25" t="s">
-        <v>618</v>
-      </c>
-      <c r="G395" s="18" t="s">
-        <v>597</v>
-      </c>
-      <c r="H395" s="25"/>
-      <c r="M395" s="18"/>
-    </row>
-    <row r="396" spans="2:21">
-      <c r="F396" s="25"/>
-      <c r="G396" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="H396" s="25"/>
-      <c r="M396" s="18"/>
-    </row>
-    <row r="397" spans="2:21">
-      <c r="F397" s="25"/>
-      <c r="G397" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="H397" s="25"/>
-      <c r="M397" s="18"/>
-    </row>
-    <row r="398" spans="2:21">
-      <c r="F398" s="25" t="s">
-        <v>619</v>
-      </c>
-      <c r="G398" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="H398" s="25"/>
-      <c r="M398" s="18"/>
-    </row>
-    <row r="399" spans="2:21">
-      <c r="F399" s="25"/>
-      <c r="G399" s="18" t="s">
-        <v>601</v>
-      </c>
-      <c r="H399" s="25"/>
-      <c r="M399" s="18"/>
-    </row>
-    <row r="400" spans="2:21">
-      <c r="F400" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="G400" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="H400" s="25"/>
-      <c r="M400" s="18"/>
-    </row>
-    <row r="401" spans="2:13">
-      <c r="F401" s="25"/>
-      <c r="G401" s="18" t="s">
-        <v>603</v>
-      </c>
-      <c r="H401" s="25"/>
-      <c r="M401" s="18"/>
-    </row>
-    <row r="402" spans="2:13">
-      <c r="F402" s="25"/>
-      <c r="G402" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="H402" s="25"/>
-      <c r="M402" s="18"/>
-    </row>
-    <row r="403" spans="2:13">
-      <c r="F403" s="25"/>
-      <c r="G403" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="H403" s="25"/>
-      <c r="M403" s="18"/>
-    </row>
-    <row r="404" spans="2:13">
-      <c r="F404" s="25"/>
-      <c r="G404" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="H404" s="25"/>
-      <c r="M404" s="18"/>
-    </row>
-    <row r="405" spans="2:13">
-      <c r="F405" s="25" t="s">
-        <v>621</v>
-      </c>
-      <c r="G405" s="18" t="s">
-        <v>607</v>
-      </c>
-      <c r="H405" s="25"/>
-      <c r="M405" s="18"/>
-    </row>
-    <row r="406" spans="2:13">
-      <c r="F406" s="25"/>
-      <c r="G406" s="18" t="s">
-        <v>623</v>
-      </c>
-      <c r="H406" s="25"/>
-      <c r="M406" s="18"/>
-    </row>
-    <row r="407" spans="2:13">
-      <c r="G407" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="M407" s="18"/>
-    </row>
-    <row r="408" spans="2:13">
-      <c r="F408" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="G408" s="18" t="s">
-        <v>608</v>
-      </c>
-      <c r="H408" s="25"/>
-      <c r="M408" s="18"/>
-    </row>
-    <row r="409" spans="2:13">
-      <c r="F409" s="25"/>
-      <c r="G409" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="H409" s="25"/>
-      <c r="M409" s="18"/>
-    </row>
-    <row r="410" spans="2:13">
-      <c r="F410" s="25"/>
-      <c r="G410" s="18" t="s">
-        <v>610</v>
-      </c>
-      <c r="H410" s="25"/>
-      <c r="M410" s="18"/>
-    </row>
-    <row r="411" spans="2:13">
-      <c r="F411" s="25"/>
-      <c r="G411" s="18" t="s">
-        <v>625</v>
-      </c>
-      <c r="H411" s="25"/>
-      <c r="M411" s="18"/>
-    </row>
-    <row r="412" spans="2:13">
-      <c r="F412" s="25"/>
-      <c r="H412" s="25"/>
-      <c r="M412" s="18"/>
-    </row>
-    <row r="413" spans="2:13">
-      <c r="F413" s="25"/>
-      <c r="G413" s="25"/>
-      <c r="H413" s="25"/>
-      <c r="M413" s="18"/>
-    </row>
-    <row r="414" spans="2:13">
-      <c r="G414" s="25"/>
-      <c r="M414" s="18"/>
-    </row>
-    <row r="415" spans="2:13">
-      <c r="B415">
-        <v>11</v>
-      </c>
-      <c r="M415" s="18"/>
-    </row>
-    <row r="416" spans="2:13">
-      <c r="C416" t="s">
-        <v>612</v>
-      </c>
-      <c r="D416" t="s">
-        <v>613</v>
-      </c>
-      <c r="M416" s="18"/>
-    </row>
-    <row r="417" spans="4:13">
-      <c r="M417" s="18"/>
-    </row>
-    <row r="418" spans="4:13">
-      <c r="M418" s="18"/>
-    </row>
-    <row r="419" spans="4:13">
-      <c r="D419" t="s">
-        <v>614</v>
-      </c>
-      <c r="M419" s="18"/>
-    </row>
-    <row r="420" spans="4:13">
-      <c r="D420" t="s">
-        <v>615</v>
-      </c>
-      <c r="M420" s="18"/>
-    </row>
-    <row r="421" spans="4:13">
-      <c r="M421" s="18"/>
-    </row>
-    <row r="422" spans="4:13">
-      <c r="M422" s="18"/>
-    </row>
-    <row r="423" spans="4:13">
-      <c r="M423" s="18"/>
-    </row>
-    <row r="424" spans="4:13">
-      <c r="M424" s="18"/>
-    </row>
-    <row r="425" spans="4:13">
-      <c r="M425" s="18"/>
-    </row>
-    <row r="426" spans="4:13">
-      <c r="M426" s="18"/>
-    </row>
-    <row r="427" spans="4:13">
-      <c r="M427" s="18"/>
-    </row>
-    <row r="428" spans="4:13">
-      <c r="D428" t="s">
-        <v>616</v>
-      </c>
-      <c r="M428" s="18"/>
-    </row>
-    <row r="429" spans="4:13">
-      <c r="M429" s="18"/>
-    </row>
-    <row r="430" spans="4:13">
-      <c r="M430" s="18"/>
-    </row>
-    <row r="431" spans="4:13">
-      <c r="M431" s="18"/>
-    </row>
-    <row r="432" spans="4:13">
-      <c r="M432" s="18"/>
-    </row>
-    <row r="433" spans="2:27">
-      <c r="M433" s="18"/>
-    </row>
-    <row r="434" spans="2:27">
-      <c r="M434" s="18"/>
-    </row>
-    <row r="435" spans="2:27">
-      <c r="B435">
-        <v>12</v>
-      </c>
-      <c r="D435" s="26"/>
-    </row>
-    <row r="436" spans="2:27" ht="16.5">
-      <c r="C436" t="s">
-        <v>555</v>
-      </c>
-      <c r="D436" t="s">
-        <v>201</v>
-      </c>
-      <c r="E436" s="10" t="s">
+    </row>
+    <row r="511" spans="2:10">
+      <c r="C511" t="s">
+        <v>197</v>
+      </c>
+      <c r="E511" t="s">
         <v>207</v>
       </c>
-      <c r="F436" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G436" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="H436" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="I436" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="J436" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K436" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="L436" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="M436" s="10"/>
-      <c r="N436" s="10"/>
-      <c r="O436" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="P436" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q436" s="28" t="s">
-        <v>366</v>
-      </c>
-      <c r="R436" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="S436" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="T436" s="54"/>
-      <c r="U436" s="55"/>
-      <c r="V436" s="54"/>
-      <c r="W436" s="54"/>
-      <c r="X436" s="54"/>
-      <c r="Y436" s="54"/>
-      <c r="Z436" s="54"/>
-      <c r="AA436" s="54"/>
-    </row>
-    <row r="437" spans="2:27" ht="16.5">
-      <c r="E437" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="F437" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G437" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="H437" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="I437" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J437" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="K437" s="10" t="s">
+      <c r="F511" t="s">
+        <v>335</v>
+      </c>
+      <c r="G511" t="s">
+        <v>330</v>
+      </c>
+      <c r="H511" t="s">
         <v>243</v>
       </c>
-      <c r="L437" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="M437" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="N437" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="O437" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="P437" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q437" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="R437" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="S437" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="T437" s="56"/>
-      <c r="U437" s="57"/>
-      <c r="V437" s="56"/>
-      <c r="W437" s="56"/>
-      <c r="X437" s="56"/>
-      <c r="Y437" s="56"/>
-      <c r="Z437" s="56"/>
-      <c r="AA437" s="56"/>
-    </row>
-    <row r="438" spans="2:27" ht="16.5">
-      <c r="E438" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F438" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="G438" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H438" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="I438" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="J438" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="K438" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="L438" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="M438" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="N438" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="O438" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="P438" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q438" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="R438" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="S438" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="T438" s="56"/>
-      <c r="U438" s="57"/>
-      <c r="V438" s="56"/>
-      <c r="W438" s="56"/>
-      <c r="X438" s="56"/>
-      <c r="Y438" s="56"/>
-      <c r="Z438" s="56"/>
-      <c r="AA438" s="56"/>
-    </row>
-    <row r="439" spans="2:27">
-      <c r="D439" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="440" spans="2:27">
-      <c r="D440" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="441" spans="2:27">
-      <c r="G441" s="21"/>
-      <c r="H441" s="21"/>
-      <c r="I441" s="21"/>
-      <c r="J441" s="21"/>
-      <c r="K441" s="53" t="s">
-        <v>560</v>
-      </c>
-      <c r="P441">
-        <v>1</v>
-      </c>
-      <c r="Q441" s="21"/>
-      <c r="R441" s="21"/>
-      <c r="S441" s="21"/>
-    </row>
-    <row r="442" spans="2:27">
-      <c r="K442" s="53" t="s">
-        <v>561</v>
-      </c>
-      <c r="P442">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="448" spans="2:27">
-      <c r="D448" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="453" spans="2:10">
-      <c r="B453">
-        <v>13</v>
-      </c>
-      <c r="C453" t="s">
-        <v>326</v>
-      </c>
-      <c r="D453" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="454" spans="2:10">
-      <c r="C454" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="456" spans="2:10">
-      <c r="B456">
-        <v>14</v>
-      </c>
-      <c r="C456" t="s">
-        <v>329</v>
-      </c>
-      <c r="D456" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="457" spans="2:10">
-      <c r="C457" t="s">
-        <v>196</v>
-      </c>
-      <c r="E457" t="s">
-        <v>207</v>
-      </c>
-      <c r="F457" t="s">
-        <v>208</v>
-      </c>
-      <c r="G457" t="s">
-        <v>330</v>
-      </c>
-      <c r="H457" t="s">
+      <c r="I511" t="s">
         <v>331</v>
       </c>
-      <c r="I457" t="s">
-        <v>332</v>
-      </c>
-      <c r="J457" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="459" spans="2:10">
-      <c r="B459">
-        <v>15</v>
-      </c>
-      <c r="C459" t="s">
-        <v>334</v>
-      </c>
-      <c r="D459" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="460" spans="2:10">
-      <c r="C460" t="s">
-        <v>197</v>
-      </c>
-      <c r="E460" t="s">
-        <v>207</v>
-      </c>
-      <c r="F460" t="s">
-        <v>335</v>
-      </c>
-      <c r="G460" t="s">
-        <v>330</v>
-      </c>
-      <c r="H460" t="s">
-        <v>243</v>
-      </c>
-      <c r="I460" t="s">
-        <v>331</v>
-      </c>
-      <c r="J460" t="s">
+      <c r="J511" t="s">
         <v>332</v>
       </c>
     </row>
@@ -9068,7 +9767,7 @@
   <dimension ref="B4:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9092,20 +9791,20 @@
         <v>243</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G5" s="41"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="40"/>
       <c r="C6" s="25" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -9116,20 +9815,20 @@
       <c r="B7" s="40"/>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E7" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>473</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>474</v>
       </c>
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="40"/>
       <c r="C8" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -9140,13 +9839,13 @@
       <c r="B9" s="40"/>
       <c r="C9" s="25"/>
       <c r="D9" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G9" s="41"/>
     </row>
@@ -9154,13 +9853,13 @@
       <c r="B10" s="40"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G10" s="41"/>
     </row>
@@ -9176,13 +9875,13 @@
       <c r="B12" s="40"/>
       <c r="C12" s="25"/>
       <c r="D12" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G12" s="41"/>
     </row>
@@ -9190,13 +9889,13 @@
       <c r="B13" s="40"/>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G13" s="41"/>
     </row>
@@ -9204,13 +9903,13 @@
       <c r="B14" s="40"/>
       <c r="C14" s="25"/>
       <c r="D14" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G14" s="41"/>
     </row>
@@ -9226,13 +9925,13 @@
       <c r="B16" s="40"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="E16" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="E16" s="25" t="s">
-        <v>483</v>
-      </c>
       <c r="F16" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G16" s="41"/>
     </row>
@@ -9240,13 +9939,13 @@
       <c r="B17" s="40"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25" t="s">
+        <v>483</v>
+      </c>
+      <c r="E17" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="E17" s="25" t="s">
-        <v>485</v>
-      </c>
       <c r="F17" s="25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G17" s="41"/>
     </row>
